--- a/Experiment 1/original_data/phage_bygenotype_data.xlsx
+++ b/Experiment 1/original_data/phage_bygenotype_data.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofexeteruk-my.sharepoint.com/personal/jc860_exeter_ac_uk/Documents/Data/Relative_diversity/Experiment 1/original_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jcommon/OneDrive - University of Exeter/Data/Relative_diversity/Experiment 1/original_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{0C3C9BB6-E1D8-8842-80F7-5240BDAC5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5DEEC15A-4319-8341-98ED-13F5A7679531}"/>
+  <xr:revisionPtr revIDLastSave="303" documentId="114_{0C3C9BB6-E1D8-8842-80F7-5240BDAC5D66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{31DA073F-CEEC-D04F-BE95-DA7252C596C2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="28800" windowHeight="16120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dynamics_master.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dynamics_master.csv!$E$1:$E$1082</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">dynamics_master.csv!$A$2:$G$1082</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -565,8 +565,8 @@
   <dimension ref="A1:G1082"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="94" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F402" sqref="F402"/>
+      <pane ySplit="2" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J164" sqref="J164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,7 +634,7 @@
         <v>10000</v>
       </c>
       <c r="G3" s="10">
-        <f>(E3*200)*F3</f>
+        <f t="shared" ref="G3:G66" si="0">(E3*200)*F3</f>
         <v>62000000</v>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>100000</v>
       </c>
       <c r="G4" s="10">
-        <f>(E4*200)*F4</f>
+        <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
     </row>
@@ -682,7 +682,7 @@
         <v>10000</v>
       </c>
       <c r="G5" s="10">
-        <f>(E5*200)*F5</f>
+        <f t="shared" si="0"/>
         <v>24000000</v>
       </c>
     </row>
@@ -706,7 +706,7 @@
         <v>100000</v>
       </c>
       <c r="G6" s="10">
-        <f>(E6*200)*F6</f>
+        <f t="shared" si="0"/>
         <v>240000000</v>
       </c>
     </row>
@@ -730,7 +730,7 @@
         <v>10000</v>
       </c>
       <c r="G7" s="10">
-        <f>(E7*200)*F7</f>
+        <f t="shared" si="0"/>
         <v>56000000</v>
       </c>
     </row>
@@ -754,7 +754,7 @@
         <v>100000</v>
       </c>
       <c r="G8" s="10">
-        <f>(E8*200)*F8</f>
+        <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
     </row>
@@ -778,7 +778,7 @@
         <v>10000</v>
       </c>
       <c r="G9" s="10">
-        <f>(E9*200)*F9</f>
+        <f t="shared" si="0"/>
         <v>42000000</v>
       </c>
     </row>
@@ -802,7 +802,7 @@
         <v>100000</v>
       </c>
       <c r="G10" s="10">
-        <f>(E10*200)*F10</f>
+        <f t="shared" si="0"/>
         <v>100000000</v>
       </c>
     </row>
@@ -826,7 +826,7 @@
         <v>100000</v>
       </c>
       <c r="G11" s="10">
-        <f>(E11*200)*F11</f>
+        <f t="shared" si="0"/>
         <v>180000000</v>
       </c>
     </row>
@@ -850,7 +850,7 @@
         <v>1000</v>
       </c>
       <c r="G12" s="10">
-        <f>(E12*200)*F12</f>
+        <f t="shared" si="0"/>
         <v>3400000</v>
       </c>
     </row>
@@ -874,7 +874,7 @@
         <v>1000</v>
       </c>
       <c r="G13" s="10">
-        <f>(E13*200)*F13</f>
+        <f t="shared" si="0"/>
         <v>4000000</v>
       </c>
     </row>
@@ -898,7 +898,7 @@
         <v>1000</v>
       </c>
       <c r="G14" s="10">
-        <f>(E14*200)*F14</f>
+        <f t="shared" si="0"/>
         <v>6000000</v>
       </c>
     </row>
@@ -1047,11 +1047,11 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>6</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2</v>
+      <c r="A21" s="9">
+        <v>6</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1</v>
       </c>
       <c r="C21" s="5">
         <v>5</v>
@@ -1059,19 +1059,23 @@
       <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="E21" s="9">
+        <v>4</v>
+      </c>
+      <c r="F21" s="11">
+        <v>10000</v>
+      </c>
       <c r="G21" s="10">
         <f>(E21*200)*F21</f>
-        <v>0</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>6</v>
-      </c>
-      <c r="B22" s="4">
-        <v>2</v>
+      <c r="A22" s="9">
+        <v>6</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1</v>
       </c>
       <c r="C22" s="5">
         <v>6</v>
@@ -1079,51 +1083,63 @@
       <c r="D22" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="9">
+        <v>25</v>
+      </c>
+      <c r="F22" s="11">
+        <v>10</v>
+      </c>
       <c r="G22" s="10">
         <f>(E22*200)*F22</f>
-        <v>0</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>6</v>
-      </c>
-      <c r="B23" s="4">
-        <v>3</v>
-      </c>
-      <c r="C23" s="5">
+      <c r="A23" s="5">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
         <v>5</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="E23" s="9">
+        <v>13</v>
+      </c>
+      <c r="F23" s="10">
+        <v>100</v>
+      </c>
       <c r="G23" s="10">
         <f>(E23*200)*F23</f>
-        <v>0</v>
+        <v>260000</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>6</v>
-      </c>
-      <c r="B24" s="4">
-        <v>3</v>
-      </c>
-      <c r="C24" s="5">
+      <c r="A24" s="5">
+        <v>12</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1</v>
+      </c>
+      <c r="C24" s="9">
         <v>6</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="9">
+        <v>15</v>
+      </c>
+      <c r="F24" s="9">
+        <v>10</v>
+      </c>
       <c r="G24" s="10">
         <f>(E24*200)*F24</f>
-        <v>0</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -1139,11 +1155,15 @@
       <c r="D25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="9">
+        <v>42</v>
+      </c>
+      <c r="F25" s="9">
+        <v>100</v>
+      </c>
       <c r="G25" s="10">
         <f>(E25*200)*F25</f>
-        <v>0</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -1159,11 +1179,15 @@
       <c r="D26" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="13"/>
+      <c r="E26" s="9">
+        <v>50</v>
+      </c>
+      <c r="F26" s="13">
+        <v>10</v>
+      </c>
       <c r="G26" s="10">
         <f>(E26*200)*F26</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -1251,11 +1275,15 @@
       <c r="D30" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="E30" s="9">
+        <v>60</v>
+      </c>
+      <c r="F30" s="9">
+        <v>10</v>
+      </c>
       <c r="G30" s="10">
         <f>(E30*200)*F30</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -1271,11 +1299,15 @@
       <c r="D31" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="9">
+        <v>6</v>
+      </c>
+      <c r="F31" s="9">
+        <v>10</v>
+      </c>
       <c r="G31" s="10">
         <f>(E31*200)*F31</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
@@ -1291,11 +1323,15 @@
       <c r="D32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E32" s="9"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="9">
+        <v>15</v>
+      </c>
+      <c r="F32" s="11">
+        <v>1000</v>
+      </c>
       <c r="G32" s="10">
         <f>(E32*200)*F32</f>
-        <v>0</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1311,11 +1347,15 @@
       <c r="D33" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="9">
+        <v>80</v>
+      </c>
+      <c r="F33" s="11">
+        <v>10</v>
+      </c>
       <c r="G33" s="10">
         <f>(E33*200)*F33</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -1331,9 +1371,15 @@
       <c r="D34" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="E34" s="9">
+        <v>4</v>
+      </c>
+      <c r="F34" s="10">
+        <v>100</v>
+      </c>
       <c r="G34" s="10">
         <f>(E34*200)*F34</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1349,9 +1395,15 @@
       <c r="D35" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="E35" s="9">
+        <v>7</v>
+      </c>
+      <c r="F35" s="13">
+        <v>10</v>
+      </c>
       <c r="G35" s="10">
         <f>(E35*200)*F35</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1439,19 +1491,23 @@
       <c r="D39" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="11"/>
+      <c r="E39" s="9">
+        <v>6</v>
+      </c>
+      <c r="F39" s="11">
+        <v>10000</v>
+      </c>
       <c r="G39" s="10">
         <f>(E39*200)*F39</f>
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" s="4">
-        <v>3</v>
+      <c r="B40" s="5">
+        <v>1</v>
       </c>
       <c r="C40" s="5">
         <v>7</v>
@@ -1460,14 +1516,14 @@
         <v>28</v>
       </c>
       <c r="E40" s="9">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F40" s="11">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="G40" s="10">
         <f>(E40*200)*F40</f>
-        <v>4000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1483,11 +1539,15 @@
       <c r="D41" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="11"/>
+      <c r="E41" s="9">
+        <v>34</v>
+      </c>
+      <c r="F41" s="11">
+        <v>100</v>
+      </c>
       <c r="G41" s="10">
         <f>(E41*200)*F41</f>
-        <v>0</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1708,26 +1768,26 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>3</v>
-      </c>
-      <c r="B51" s="4">
-        <v>2</v>
-      </c>
-      <c r="C51" s="4">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="5">
+        <v>1</v>
+      </c>
+      <c r="C51" s="9">
+        <v>7</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E51" s="9">
         <v>12</v>
       </c>
-      <c r="F51" s="11">
-        <v>10000</v>
+      <c r="F51" s="9">
+        <v>10</v>
       </c>
       <c r="G51" s="10">
         <f>(E51*200)*F51</f>
-        <v>24000000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,8 +1914,8 @@
       <c r="A57" s="5">
         <v>3</v>
       </c>
-      <c r="B57" s="4">
-        <v>3</v>
+      <c r="B57" s="5">
+        <v>1</v>
       </c>
       <c r="C57" s="5">
         <v>8</v>
@@ -1864,14 +1924,14 @@
         <v>30</v>
       </c>
       <c r="E57" s="9">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="F57" s="11">
-        <v>10</v>
+        <v>100000</v>
       </c>
       <c r="G57" s="10">
         <f>(E57*200)*F57</f>
-        <v>52000</v>
+        <v>80000000</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
@@ -2092,26 +2152,26 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
-        <v>3</v>
-      </c>
-      <c r="B67" s="4">
-        <v>3</v>
-      </c>
-      <c r="C67" s="4">
-        <v>5</v>
-      </c>
-      <c r="D67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1</v>
+      </c>
+      <c r="C67" s="9">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E67" s="9">
-        <v>9</v>
-      </c>
-      <c r="F67" s="11">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="F67" s="9">
+        <v>10</v>
       </c>
       <c r="G67" s="10">
         <f>(E67*200)*F67</f>
-        <v>180000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
@@ -2238,8 +2298,8 @@
       <c r="A73" s="5">
         <v>3</v>
       </c>
-      <c r="B73" s="4">
-        <v>3</v>
+      <c r="B73" s="5">
+        <v>1</v>
       </c>
       <c r="C73" s="5">
         <v>8</v>
@@ -2248,22 +2308,22 @@
         <v>31</v>
       </c>
       <c r="E73" s="9">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F73" s="11">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G73" s="10">
         <f>(E73*200)*F73</f>
-        <v>340000</v>
+        <v>66000000</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>3</v>
       </c>
-      <c r="B74" s="4">
-        <v>3</v>
+      <c r="B74" s="5">
+        <v>1</v>
       </c>
       <c r="C74" s="5">
         <v>8</v>
@@ -2272,14 +2332,14 @@
         <v>32</v>
       </c>
       <c r="E74" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="F74" s="11">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="G74" s="10">
         <f>(E74*200)*F74</f>
-        <v>340000</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
@@ -2499,11 +2559,11 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" s="9">
-        <v>6</v>
-      </c>
-      <c r="B84" s="5">
-        <v>1</v>
+      <c r="A84" s="4">
+        <v>6</v>
+      </c>
+      <c r="B84" s="4">
+        <v>2</v>
       </c>
       <c r="C84" s="5">
         <v>5</v>
@@ -2512,14 +2572,14 @@
         <v>21</v>
       </c>
       <c r="E84" s="9">
-        <v>4</v>
-      </c>
-      <c r="F84" s="11">
-        <v>10000</v>
+        <v>23</v>
+      </c>
+      <c r="F84" s="12">
+        <v>1000</v>
       </c>
       <c r="G84" s="10">
         <f>(E84*200)*F84</f>
-        <v>8000000</v>
+        <v>4600000</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
@@ -2559,11 +2619,15 @@
       <c r="D86" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E86" s="9"/>
-      <c r="F86" s="13"/>
+      <c r="E86" s="9">
+        <v>25</v>
+      </c>
+      <c r="F86" s="13">
+        <v>100</v>
+      </c>
       <c r="G86" s="10">
         <f>(E86*200)*F86</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
@@ -2579,11 +2643,15 @@
       <c r="D87" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
+      <c r="E87" s="9">
+        <v>8</v>
+      </c>
+      <c r="F87" s="9">
+        <v>100</v>
+      </c>
       <c r="G87" s="10">
         <f>(E87*200)*F87</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
@@ -2599,9 +2667,15 @@
       <c r="D88" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="E88" s="9">
+        <v>1</v>
+      </c>
+      <c r="F88" s="13">
+        <v>100</v>
+      </c>
       <c r="G88" s="10">
         <f>(E88*200)*F88</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
@@ -2617,9 +2691,15 @@
       <c r="D89" s="8" t="s">
         <v>24</v>
       </c>
+      <c r="E89" s="9">
+        <v>27</v>
+      </c>
+      <c r="F89" s="13">
+        <v>10</v>
+      </c>
       <c r="G89" s="10">
         <f>(E89*200)*F89</f>
-        <v>0</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
@@ -2839,11 +2919,11 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="9">
-        <v>6</v>
-      </c>
-      <c r="B99" s="5">
-        <v>1</v>
+      <c r="A99" s="4">
+        <v>6</v>
+      </c>
+      <c r="B99" s="4">
+        <v>2</v>
       </c>
       <c r="C99" s="5">
         <v>6</v>
@@ -2852,14 +2932,14 @@
         <v>21</v>
       </c>
       <c r="E99" s="9">
-        <v>25</v>
-      </c>
-      <c r="F99" s="11">
-        <v>10</v>
+        <v>80</v>
+      </c>
+      <c r="F99" s="13">
+        <v>1</v>
       </c>
       <c r="G99" s="10">
         <f>(E99*200)*F99</f>
-        <v>50000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
@@ -2899,11 +2979,15 @@
       <c r="D101" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E101" s="9"/>
-      <c r="F101" s="11"/>
+      <c r="E101" s="9">
+        <v>35</v>
+      </c>
+      <c r="F101" s="11">
+        <v>100</v>
+      </c>
       <c r="G101" s="10">
         <f>(E101*200)*F101</f>
-        <v>0</v>
+        <v>700000</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
@@ -2919,11 +3003,15 @@
       <c r="D102" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="9"/>
-      <c r="F102" s="11"/>
+      <c r="E102" s="9">
+        <v>2</v>
+      </c>
+      <c r="F102" s="11">
+        <v>100</v>
+      </c>
       <c r="G102" s="10">
         <f>(E102*200)*F102</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
@@ -2939,9 +3027,15 @@
       <c r="D103" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="E103" s="9">
+        <v>80</v>
+      </c>
+      <c r="F103" s="10">
+        <v>10</v>
+      </c>
       <c r="G103" s="10">
         <f>(E103*200)*F103</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
@@ -2957,17 +3051,23 @@
       <c r="D104" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="E104" s="9">
+        <v>4</v>
+      </c>
+      <c r="F104" s="13">
+        <v>10</v>
+      </c>
       <c r="G104" s="10">
         <f>(E104*200)*F104</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="4">
-        <v>6</v>
-      </c>
-      <c r="B105" s="4">
-        <v>3</v>
+      <c r="A105" s="9">
+        <v>6</v>
+      </c>
+      <c r="B105" s="5">
+        <v>1</v>
       </c>
       <c r="C105" s="5">
         <v>7</v>
@@ -2976,22 +3076,22 @@
         <v>28</v>
       </c>
       <c r="E105" s="9">
-        <v>0</v>
-      </c>
-      <c r="F105" s="9">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="F105" s="11">
+        <v>100</v>
       </c>
       <c r="G105" s="10">
         <f>(E105*200)*F105</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="4">
-        <v>6</v>
-      </c>
-      <c r="B106" s="4">
-        <v>3</v>
+      <c r="A106" s="9">
+        <v>6</v>
+      </c>
+      <c r="B106" s="5">
+        <v>1</v>
       </c>
       <c r="C106" s="5">
         <v>8</v>
@@ -3000,14 +3100,14 @@
         <v>28</v>
       </c>
       <c r="E106" s="9">
-        <v>5</v>
-      </c>
-      <c r="F106" s="9">
-        <v>100</v>
+        <v>7</v>
+      </c>
+      <c r="F106" s="11">
+        <v>1000</v>
       </c>
       <c r="G106" s="10">
         <f>(E106*200)*F106</f>
-        <v>100000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
@@ -3167,9 +3267,15 @@
       <c r="D113" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="E113" s="9">
+        <v>20</v>
+      </c>
+      <c r="F113" s="13">
+        <v>1</v>
+      </c>
       <c r="G113" s="10">
         <f>(E113*200)*F113</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -3185,6 +3291,12 @@
       <c r="D114" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="E114" s="9">
+        <v>0</v>
+      </c>
+      <c r="F114" s="13">
+        <v>0</v>
+      </c>
       <c r="G114" s="10">
         <f>(E114*200)*F114</f>
         <v>0</v>
@@ -3203,11 +3315,15 @@
       <c r="D115" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E115" s="9"/>
-      <c r="F115" s="11"/>
+      <c r="E115" s="9">
+        <v>6</v>
+      </c>
+      <c r="F115" s="11">
+        <v>10000</v>
+      </c>
       <c r="G115" s="10">
         <f>(E115*200)*F115</f>
-        <v>0</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -3223,11 +3339,15 @@
       <c r="D116" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E116" s="9"/>
-      <c r="F116" s="11"/>
+      <c r="E116" s="9">
+        <v>4</v>
+      </c>
+      <c r="F116" s="11">
+        <v>1000</v>
+      </c>
       <c r="G116" s="10">
         <f>(E116*200)*F116</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -3243,9 +3363,15 @@
       <c r="D117" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="E117" s="9">
+        <v>10</v>
+      </c>
+      <c r="F117" s="10">
+        <v>1000</v>
+      </c>
       <c r="G117" s="10">
         <f>(E117*200)*F117</f>
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -3261,9 +3387,15 @@
       <c r="D118" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="E118" s="9">
+        <v>12</v>
+      </c>
+      <c r="F118" s="13">
+        <v>1000</v>
+      </c>
       <c r="G118" s="10">
         <f>(E118*200)*F118</f>
-        <v>0</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -3279,9 +3411,15 @@
       <c r="D119" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="E119" s="9">
+        <v>5</v>
+      </c>
+      <c r="F119" s="13">
+        <v>100</v>
+      </c>
       <c r="G119" s="10">
         <f>(E119*200)*F119</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -3297,9 +3435,15 @@
       <c r="D120" s="8" t="s">
         <v>26</v>
       </c>
+      <c r="E120" s="9">
+        <v>33</v>
+      </c>
+      <c r="F120" s="13">
+        <v>10</v>
+      </c>
       <c r="G120" s="10">
         <f>(E120*200)*F120</f>
-        <v>0</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -3315,71 +3459,87 @@
       <c r="D121" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E121" s="9"/>
-      <c r="F121" s="11"/>
+      <c r="E121" s="9">
+        <v>16</v>
+      </c>
+      <c r="F121" s="11">
+        <v>10</v>
+      </c>
       <c r="G121" s="10">
         <f>(E121*200)*F121</f>
-        <v>0</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" s="5">
-        <v>3</v>
-      </c>
-      <c r="B122" s="4">
-        <v>2</v>
+      <c r="A122" s="9">
+        <v>6</v>
+      </c>
+      <c r="B122" s="5">
+        <v>1</v>
       </c>
       <c r="C122" s="5">
         <v>7</v>
       </c>
-      <c r="D122" s="6" t="s">
+      <c r="D122" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E122" s="9"/>
-      <c r="F122" s="11"/>
+      <c r="E122" s="9">
+        <v>10</v>
+      </c>
+      <c r="F122" s="11">
+        <v>10</v>
+      </c>
       <c r="G122" s="10">
         <f>(E122*200)*F122</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" s="5">
-        <v>3</v>
-      </c>
-      <c r="B123" s="4">
-        <v>3</v>
+      <c r="A123" s="9">
+        <v>6</v>
+      </c>
+      <c r="B123" s="5">
+        <v>1</v>
       </c>
       <c r="C123" s="5">
-        <v>7</v>
-      </c>
-      <c r="D123" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D123" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E123"/>
-      <c r="F123" s="11"/>
+      <c r="E123" s="9">
+        <v>3</v>
+      </c>
+      <c r="F123" s="11">
+        <v>100</v>
+      </c>
       <c r="G123" s="10">
         <f>(E123*200)*F123</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" s="9">
-        <v>6</v>
+      <c r="A124" s="5">
+        <v>12</v>
       </c>
       <c r="B124" s="5">
         <v>1</v>
       </c>
-      <c r="C124" s="5">
-        <v>7</v>
+      <c r="C124" s="9">
+        <v>5</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="11"/>
+      <c r="E124" s="9">
+        <v>4</v>
+      </c>
+      <c r="F124" s="10">
+        <v>100</v>
+      </c>
       <c r="G124" s="10">
         <f>(E124*200)*F124</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -3527,77 +3687,99 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" s="9">
-        <v>6</v>
+      <c r="A131" s="5">
+        <v>12</v>
       </c>
       <c r="B131" s="5">
         <v>1</v>
       </c>
-      <c r="C131" s="5">
-        <v>8</v>
+      <c r="C131" s="9">
+        <v>6</v>
       </c>
       <c r="D131" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="E131" s="9"/>
-      <c r="F131" s="11"/>
+      <c r="E131" s="9">
+        <v>10</v>
+      </c>
+      <c r="F131" s="13">
+        <v>10</v>
+      </c>
       <c r="G131" s="10">
         <f>(E131*200)*F131</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" s="4">
-        <v>6</v>
-      </c>
-      <c r="B132" s="4">
-        <v>2</v>
-      </c>
-      <c r="C132" s="5">
+      <c r="A132" s="5">
+        <v>12</v>
+      </c>
+      <c r="B132" s="5">
+        <v>1</v>
+      </c>
+      <c r="C132" s="9">
         <v>7</v>
       </c>
       <c r="D132" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E132" s="9">
+        <v>6</v>
+      </c>
+      <c r="F132" s="13">
+        <v>10</v>
+      </c>
       <c r="G132" s="10">
         <f>(E132*200)*F132</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" s="4">
-        <v>6</v>
-      </c>
-      <c r="B133" s="4">
-        <v>2</v>
-      </c>
-      <c r="C133" s="5">
+      <c r="A133" s="5">
+        <v>12</v>
+      </c>
+      <c r="B133" s="5">
+        <v>1</v>
+      </c>
+      <c r="C133" s="9">
         <v>8</v>
       </c>
       <c r="D133" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E133" s="9">
+        <v>17</v>
+      </c>
+      <c r="F133" s="13">
+        <v>10</v>
+      </c>
       <c r="G133" s="10">
         <f>(E133*200)*F133</f>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" s="4">
-        <v>6</v>
+      <c r="A134" s="5">
+        <v>3</v>
       </c>
       <c r="B134" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C134" s="5">
         <v>7</v>
       </c>
-      <c r="D134" s="8" t="s">
+      <c r="D134" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="E134" s="9">
+        <v>5</v>
+      </c>
+      <c r="F134" s="11">
+        <v>1</v>
       </c>
       <c r="G134" s="10">
         <f>(E134*200)*F134</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -3605,89 +3787,119 @@
         <v>6</v>
       </c>
       <c r="B135" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C135" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D135" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E135" s="9">
+        <v>3</v>
+      </c>
+      <c r="F135" s="10">
+        <v>1</v>
+      </c>
       <c r="G135" s="10">
         <f>(E135*200)*F135</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" s="5">
-        <v>12</v>
-      </c>
-      <c r="B136" s="5">
-        <v>1</v>
-      </c>
-      <c r="C136" s="9">
-        <v>5</v>
+      <c r="A136" s="4">
+        <v>6</v>
+      </c>
+      <c r="B136" s="4">
+        <v>2</v>
+      </c>
+      <c r="C136" s="5">
+        <v>8</v>
       </c>
       <c r="D136" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E136" s="9">
+        <v>40</v>
+      </c>
+      <c r="F136" s="13">
+        <v>10</v>
+      </c>
       <c r="G136" s="10">
         <f>(E136*200)*F136</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A137" s="5">
-        <v>12</v>
-      </c>
-      <c r="B137" s="5">
-        <v>1</v>
+      <c r="A137" s="9">
+        <v>12</v>
+      </c>
+      <c r="B137" s="9">
+        <v>2</v>
       </c>
       <c r="C137" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D137" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E137" s="9">
+        <v>6</v>
+      </c>
+      <c r="F137" s="13">
+        <v>10</v>
+      </c>
       <c r="G137" s="10">
         <f>(E137*200)*F137</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="5">
-        <v>12</v>
-      </c>
-      <c r="B138" s="5">
-        <v>1</v>
+      <c r="A138" s="9">
+        <v>12</v>
+      </c>
+      <c r="B138" s="9">
+        <v>2</v>
       </c>
       <c r="C138" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E138" s="9">
+        <v>0</v>
+      </c>
+      <c r="F138" s="13">
+        <v>1</v>
+      </c>
       <c r="G138" s="10">
         <f>(E138*200)*F138</f>
         <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" s="5">
-        <v>12</v>
-      </c>
-      <c r="B139" s="5">
-        <v>1</v>
+      <c r="A139" s="9">
+        <v>12</v>
+      </c>
+      <c r="B139" s="9">
+        <v>2</v>
       </c>
       <c r="C139" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D139" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E139" s="9">
+        <v>1</v>
+      </c>
+      <c r="F139" s="13">
+        <v>1</v>
+      </c>
       <c r="G139" s="10">
         <f>(E139*200)*F139</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -3698,46 +3910,64 @@
         <v>2</v>
       </c>
       <c r="C140" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D140" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E140" s="9">
+        <v>3</v>
+      </c>
+      <c r="F140" s="13">
+        <v>1</v>
+      </c>
       <c r="G140" s="10">
         <f>(E140*200)*F140</f>
-        <v>0</v>
+        <v>600</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" s="9">
-        <v>12</v>
-      </c>
-      <c r="B141" s="9">
-        <v>2</v>
-      </c>
-      <c r="C141" s="9">
-        <v>6</v>
-      </c>
-      <c r="D141" s="8" t="s">
+      <c r="A141" s="5">
+        <v>3</v>
+      </c>
+      <c r="B141" s="4">
+        <v>3</v>
+      </c>
+      <c r="C141" s="5">
+        <v>7</v>
+      </c>
+      <c r="D141" s="6" t="s">
         <v>27</v>
+      </c>
+      <c r="E141" s="9">
+        <v>5</v>
+      </c>
+      <c r="F141" s="11">
+        <v>1</v>
       </c>
       <c r="G141" s="10">
         <f>(E141*200)*F141</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" s="9">
-        <v>12</v>
-      </c>
-      <c r="B142" s="9">
-        <v>2</v>
-      </c>
-      <c r="C142" s="9">
+      <c r="A142" s="4">
+        <v>6</v>
+      </c>
+      <c r="B142" s="4">
+        <v>3</v>
+      </c>
+      <c r="C142" s="5">
         <v>7</v>
       </c>
       <c r="D142" s="8" t="s">
         <v>27</v>
+      </c>
+      <c r="E142" s="9">
+        <v>0</v>
+      </c>
+      <c r="F142" s="10">
+        <v>1</v>
       </c>
       <c r="G142" s="10">
         <f>(E142*200)*F142</f>
@@ -4105,21 +4335,27 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" s="9">
-        <v>12</v>
-      </c>
-      <c r="B158" s="9">
-        <v>2</v>
-      </c>
-      <c r="C158" s="9">
+      <c r="A158" s="4">
+        <v>6</v>
+      </c>
+      <c r="B158" s="4">
+        <v>3</v>
+      </c>
+      <c r="C158" s="5">
         <v>8</v>
       </c>
       <c r="D158" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E158" s="9">
+        <v>30</v>
+      </c>
+      <c r="F158" s="13">
+        <v>10</v>
+      </c>
       <c r="G158" s="10">
         <f>(E158*200)*F158</f>
-        <v>0</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -4135,9 +4371,15 @@
       <c r="D159" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E159" s="9">
+        <v>3</v>
+      </c>
+      <c r="F159" s="13">
+        <v>10</v>
+      </c>
       <c r="G159" s="10">
         <f>(E159*200)*F159</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -4177,6 +4419,12 @@
       <c r="D161" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E161" s="9">
+        <v>0</v>
+      </c>
+      <c r="F161" s="13">
+        <v>1</v>
+      </c>
       <c r="G161" s="10">
         <f>(E161*200)*F161</f>
         <v>0</v>
@@ -4195,6 +4443,12 @@
       <c r="D162" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E162" s="9">
+        <v>0</v>
+      </c>
+      <c r="F162" s="13">
+        <v>1</v>
+      </c>
       <c r="G162" s="10">
         <f>(E162*200)*F162</f>
         <v>0</v>
@@ -4213,6 +4467,12 @@
       <c r="D163" s="8" t="s">
         <v>27</v>
       </c>
+      <c r="E163" s="9">
+        <v>0</v>
+      </c>
+      <c r="F163" s="13">
+        <v>1</v>
+      </c>
       <c r="G163" s="10">
         <f>(E163*200)*F163</f>
         <v>0</v>
@@ -4241,50 +4501,58 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B165" s="5">
         <v>1</v>
       </c>
-      <c r="C165" s="5">
-        <v>7</v>
-      </c>
-      <c r="D165" s="7" t="s">
+      <c r="C165" s="9">
+        <v>5</v>
+      </c>
+      <c r="D165" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E165" s="9"/>
-      <c r="F165" s="11"/>
+      <c r="E165" s="9">
+        <v>11</v>
+      </c>
+      <c r="F165" s="10">
+        <v>100</v>
+      </c>
       <c r="G165" s="10">
         <f>(E165*200)*F165</f>
-        <v>0</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
-        <v>3</v>
-      </c>
-      <c r="B166" s="4">
-        <v>2</v>
-      </c>
-      <c r="C166" s="5">
-        <v>7</v>
-      </c>
-      <c r="D166" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B166" s="5">
+        <v>1</v>
+      </c>
+      <c r="C166" s="9">
+        <v>6</v>
+      </c>
+      <c r="D166" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E166" s="9"/>
-      <c r="F166" s="11"/>
+      <c r="E166" s="9">
+        <v>26</v>
+      </c>
+      <c r="F166" s="13">
+        <v>10</v>
+      </c>
       <c r="G166" s="10">
         <f>(E166*200)*F166</f>
-        <v>0</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" s="4">
-        <v>6</v>
-      </c>
-      <c r="B167" s="4">
-        <v>3</v>
+      <c r="A167" s="9">
+        <v>6</v>
+      </c>
+      <c r="B167" s="5">
+        <v>1</v>
       </c>
       <c r="C167" s="5">
         <v>7</v>
@@ -4293,42 +4561,46 @@
         <v>30</v>
       </c>
       <c r="E167" s="9">
-        <v>0</v>
-      </c>
-      <c r="F167" s="9">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="F167" s="11">
+        <v>100</v>
       </c>
       <c r="G167" s="10">
         <f>(E167*200)*F167</f>
-        <v>0</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" s="9">
-        <v>6</v>
+      <c r="A168" s="5">
+        <v>12</v>
       </c>
       <c r="B168" s="5">
         <v>1</v>
       </c>
-      <c r="C168" s="5">
+      <c r="C168" s="9">
         <v>7</v>
       </c>
       <c r="D168" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E168" s="9"/>
-      <c r="F168" s="11"/>
+      <c r="E168" s="9">
+        <v>40</v>
+      </c>
+      <c r="F168" s="13">
+        <v>10</v>
+      </c>
       <c r="G168" s="10">
         <f>(E168*200)*F168</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" s="4">
-        <v>6</v>
-      </c>
-      <c r="B169" s="4">
-        <v>3</v>
+      <c r="A169" s="9">
+        <v>6</v>
+      </c>
+      <c r="B169" s="5">
+        <v>1</v>
       </c>
       <c r="C169" s="5">
         <v>8</v>
@@ -4337,14 +4609,14 @@
         <v>30</v>
       </c>
       <c r="E169" s="9">
-        <v>7</v>
-      </c>
-      <c r="F169" s="9">
-        <v>100</v>
+        <v>3</v>
+      </c>
+      <c r="F169" s="11">
+        <v>10000</v>
       </c>
       <c r="G169" s="10">
         <f>(E169*200)*F169</f>
-        <v>140000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -4564,28 +4836,32 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="9">
-        <v>6</v>
+      <c r="A179" s="5">
+        <v>12</v>
       </c>
       <c r="B179" s="5">
         <v>1</v>
       </c>
-      <c r="C179" s="5">
+      <c r="C179" s="9">
         <v>8</v>
       </c>
       <c r="D179" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E179" s="9"/>
-      <c r="F179" s="11"/>
+      <c r="E179" s="9">
+        <v>50</v>
+      </c>
+      <c r="F179" s="13">
+        <v>10</v>
+      </c>
       <c r="G179" s="10">
         <f>(E179*200)*F179</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" s="4">
-        <v>6</v>
+      <c r="A180" s="5">
+        <v>3</v>
       </c>
       <c r="B180" s="4">
         <v>2</v>
@@ -4593,12 +4869,18 @@
       <c r="C180" s="5">
         <v>7</v>
       </c>
-      <c r="D180" s="8" t="s">
+      <c r="D180" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="E180" s="9">
+        <v>80</v>
+      </c>
+      <c r="F180" s="11">
+        <v>10</v>
       </c>
       <c r="G180" s="10">
         <f>(E180*200)*F180</f>
-        <v>0</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -4633,50 +4915,68 @@
         <v>2</v>
       </c>
       <c r="C182" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D182" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E182" s="9">
+        <v>6</v>
+      </c>
+      <c r="F182" s="10">
+        <v>10</v>
+      </c>
       <c r="G182" s="10">
         <f>(E182*200)*F182</f>
-        <v>0</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" s="5">
-        <v>12</v>
-      </c>
-      <c r="B183" s="5">
-        <v>1</v>
-      </c>
-      <c r="C183" s="9">
-        <v>5</v>
+      <c r="A183" s="4">
+        <v>6</v>
+      </c>
+      <c r="B183" s="4">
+        <v>2</v>
+      </c>
+      <c r="C183" s="5">
+        <v>8</v>
       </c>
       <c r="D183" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E183" s="9">
+        <v>17</v>
+      </c>
+      <c r="F183" s="13">
+        <v>100</v>
+      </c>
       <c r="G183" s="10">
         <f>(E183*200)*F183</f>
-        <v>0</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" s="5">
-        <v>12</v>
-      </c>
-      <c r="B184" s="5">
-        <v>1</v>
+      <c r="A184" s="9">
+        <v>12</v>
+      </c>
+      <c r="B184" s="9">
+        <v>2</v>
       </c>
       <c r="C184" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D184" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E184" s="9">
+        <v>40</v>
+      </c>
+      <c r="F184" s="13">
+        <v>10</v>
+      </c>
       <c r="G184" s="10">
         <f>(E184*200)*F184</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -5112,39 +5412,51 @@
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A203" s="5">
-        <v>12</v>
-      </c>
-      <c r="B203" s="5">
-        <v>1</v>
+      <c r="A203" s="9">
+        <v>12</v>
+      </c>
+      <c r="B203" s="9">
+        <v>2</v>
       </c>
       <c r="C203" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D203" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E203" s="9">
+        <v>4</v>
+      </c>
+      <c r="F203" s="13">
+        <v>1</v>
+      </c>
       <c r="G203" s="10">
         <f>(E203*200)*F203</f>
-        <v>0</v>
+        <v>800</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A204" s="5">
-        <v>12</v>
-      </c>
-      <c r="B204" s="5">
-        <v>1</v>
+      <c r="A204" s="9">
+        <v>12</v>
+      </c>
+      <c r="B204" s="9">
+        <v>2</v>
       </c>
       <c r="C204" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D204" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E204" s="9">
+        <v>9</v>
+      </c>
+      <c r="F204" s="13">
+        <v>1</v>
+      </c>
       <c r="G204" s="10">
         <f>(E204*200)*F204</f>
-        <v>0</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -5155,68 +5467,92 @@
         <v>2</v>
       </c>
       <c r="C205" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D205" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E205" s="9">
+        <v>15</v>
+      </c>
+      <c r="F205" s="13">
+        <v>1</v>
+      </c>
       <c r="G205" s="10">
         <f>(E205*200)*F205</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A206" s="9">
-        <v>12</v>
-      </c>
-      <c r="B206" s="9">
-        <v>2</v>
-      </c>
-      <c r="C206" s="9">
-        <v>6</v>
-      </c>
-      <c r="D206" s="8" t="s">
+      <c r="A206" s="5">
+        <v>3</v>
+      </c>
+      <c r="B206" s="4">
+        <v>3</v>
+      </c>
+      <c r="C206" s="5">
+        <v>7</v>
+      </c>
+      <c r="D206" s="7" t="s">
         <v>28</v>
+      </c>
+      <c r="E206" s="9">
+        <v>20</v>
+      </c>
+      <c r="F206" s="11">
+        <v>1</v>
       </c>
       <c r="G206" s="10">
         <f>(E206*200)*F206</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A207" s="9">
-        <v>12</v>
-      </c>
-      <c r="B207" s="9">
-        <v>2</v>
-      </c>
-      <c r="C207" s="9">
+      <c r="A207" s="4">
+        <v>6</v>
+      </c>
+      <c r="B207" s="4">
+        <v>3</v>
+      </c>
+      <c r="C207" s="5">
         <v>7</v>
       </c>
       <c r="D207" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E207" s="9">
+        <v>0</v>
+      </c>
+      <c r="F207" s="9">
+        <v>1</v>
+      </c>
       <c r="G207" s="10">
         <f>(E207*200)*F207</f>
         <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A208" s="9">
-        <v>12</v>
-      </c>
-      <c r="B208" s="9">
-        <v>2</v>
-      </c>
-      <c r="C208" s="9">
+      <c r="A208" s="4">
+        <v>6</v>
+      </c>
+      <c r="B208" s="4">
+        <v>3</v>
+      </c>
+      <c r="C208" s="5">
         <v>8</v>
       </c>
       <c r="D208" s="8" t="s">
         <v>28</v>
       </c>
+      <c r="E208" s="9">
+        <v>5</v>
+      </c>
+      <c r="F208" s="9">
+        <v>100</v>
+      </c>
       <c r="G208" s="10">
         <f>(E208*200)*F208</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -5232,117 +5568,143 @@
       <c r="D209" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E209" s="9"/>
-      <c r="F209" s="11"/>
+      <c r="E209" s="9">
+        <v>6</v>
+      </c>
+      <c r="F209" s="11">
+        <v>100</v>
+      </c>
       <c r="G209" s="10">
         <f>(E209*200)*F209</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A210" s="5">
-        <v>3</v>
-      </c>
-      <c r="B210" s="4">
-        <v>2</v>
+      <c r="A210" s="9">
+        <v>6</v>
+      </c>
+      <c r="B210" s="5">
+        <v>1</v>
       </c>
       <c r="C210" s="5">
         <v>7</v>
       </c>
-      <c r="D210" s="6" t="s">
+      <c r="D210" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E210" s="9"/>
-      <c r="F210" s="11"/>
+      <c r="E210" s="9">
+        <v>33</v>
+      </c>
+      <c r="F210" s="11">
+        <v>10</v>
+      </c>
       <c r="G210" s="10">
         <f>(E210*200)*F210</f>
-        <v>0</v>
+        <v>66000</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A211" s="5">
-        <v>3</v>
-      </c>
-      <c r="B211" s="4">
-        <v>3</v>
+      <c r="A211" s="9">
+        <v>6</v>
+      </c>
+      <c r="B211" s="5">
+        <v>1</v>
       </c>
       <c r="C211" s="5">
-        <v>7</v>
-      </c>
-      <c r="D211" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D211" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E211" s="9"/>
-      <c r="F211" s="11"/>
+      <c r="E211" s="9">
+        <v>4</v>
+      </c>
+      <c r="F211" s="11">
+        <v>1000</v>
+      </c>
       <c r="G211" s="10">
         <f>(E211*200)*F211</f>
-        <v>0</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A212" s="9">
-        <v>6</v>
+      <c r="A212" s="5">
+        <v>12</v>
       </c>
       <c r="B212" s="5">
         <v>1</v>
       </c>
-      <c r="C212" s="5">
-        <v>7</v>
+      <c r="C212" s="9">
+        <v>5</v>
       </c>
       <c r="D212" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E212" s="9"/>
-      <c r="F212" s="11"/>
+      <c r="E212" s="9">
+        <v>7</v>
+      </c>
+      <c r="F212" s="10">
+        <v>100</v>
+      </c>
       <c r="G212" s="10">
         <f>(E212*200)*F212</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A213" s="9">
-        <v>6</v>
+      <c r="A213" s="5">
+        <v>12</v>
       </c>
       <c r="B213" s="5">
         <v>1</v>
       </c>
-      <c r="C213" s="5">
-        <v>8</v>
+      <c r="C213" s="9">
+        <v>6</v>
       </c>
       <c r="D213" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E213" s="9"/>
-      <c r="F213" s="11"/>
+      <c r="E213" s="9">
+        <v>4</v>
+      </c>
+      <c r="F213" s="13">
+        <v>10</v>
+      </c>
       <c r="G213" s="10">
         <f>(E213*200)*F213</f>
-        <v>0</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A214" s="4">
-        <v>6</v>
-      </c>
-      <c r="B214" s="4">
-        <v>2</v>
-      </c>
-      <c r="C214" s="5">
+      <c r="A214" s="5">
+        <v>12</v>
+      </c>
+      <c r="B214" s="5">
+        <v>1</v>
+      </c>
+      <c r="C214" s="9">
         <v>7</v>
       </c>
       <c r="D214" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E214" s="9">
+        <v>14</v>
+      </c>
+      <c r="F214" s="13">
+        <v>10</v>
+      </c>
       <c r="G214" s="10">
         <f>(E214*200)*F214</f>
-        <v>0</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A215" s="4">
-        <v>6</v>
-      </c>
-      <c r="B215" s="4">
-        <v>3</v>
+      <c r="A215" s="9">
+        <v>6</v>
+      </c>
+      <c r="B215" s="5">
+        <v>1</v>
       </c>
       <c r="C215" s="5">
         <v>7</v>
@@ -5351,22 +5713,22 @@
         <v>31</v>
       </c>
       <c r="E215" s="9">
-        <v>1</v>
-      </c>
-      <c r="F215" s="9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F215" s="11">
+        <v>100</v>
       </c>
       <c r="G215" s="10">
         <f>(E215*200)*F215</f>
-        <v>2000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A216" s="4">
-        <v>6</v>
-      </c>
-      <c r="B216" s="4">
-        <v>3</v>
+      <c r="A216" s="9">
+        <v>6</v>
+      </c>
+      <c r="B216" s="5">
+        <v>1</v>
       </c>
       <c r="C216" s="5">
         <v>8</v>
@@ -5375,22 +5737,22 @@
         <v>31</v>
       </c>
       <c r="E216" s="9">
-        <v>17</v>
-      </c>
-      <c r="F216" s="9">
-        <v>100</v>
+        <v>5</v>
+      </c>
+      <c r="F216" s="11">
+        <v>10000</v>
       </c>
       <c r="G216" s="10">
         <f>(E216*200)*F216</f>
-        <v>340000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A217" s="4">
-        <v>6</v>
-      </c>
-      <c r="B217" s="4">
-        <v>3</v>
+      <c r="A217" s="9">
+        <v>6</v>
+      </c>
+      <c r="B217" s="5">
+        <v>1</v>
       </c>
       <c r="C217" s="5">
         <v>7</v>
@@ -5399,22 +5761,22 @@
         <v>32</v>
       </c>
       <c r="E217" s="9">
-        <v>1</v>
-      </c>
-      <c r="F217" s="9">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="F217" s="11">
+        <v>100</v>
       </c>
       <c r="G217" s="10">
         <f>(E217*200)*F217</f>
-        <v>200</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A218" s="4">
-        <v>6</v>
-      </c>
-      <c r="B218" s="4">
-        <v>3</v>
+      <c r="A218" s="9">
+        <v>6</v>
+      </c>
+      <c r="B218" s="5">
+        <v>1</v>
       </c>
       <c r="C218" s="5">
         <v>8</v>
@@ -5423,14 +5785,14 @@
         <v>32</v>
       </c>
       <c r="E218" s="9">
-        <v>10</v>
-      </c>
-      <c r="F218" s="9">
-        <v>10</v>
+        <v>21</v>
+      </c>
+      <c r="F218" s="11">
+        <v>1000</v>
       </c>
       <c r="G218" s="10">
         <f>(E218*200)*F218</f>
-        <v>20000</v>
+        <v>4200000</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
@@ -5891,26 +6253,26 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
-        <v>12</v>
-      </c>
-      <c r="B238" s="5">
-        <v>1</v>
-      </c>
-      <c r="C238" s="9">
+        <v>3</v>
+      </c>
+      <c r="B238" s="4">
+        <v>2</v>
+      </c>
+      <c r="C238" s="4">
         <v>5</v>
       </c>
-      <c r="D238" s="8" t="s">
+      <c r="D238" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E238" s="9">
-        <v>13</v>
-      </c>
-      <c r="F238" s="10">
-        <v>100</v>
+        <v>12</v>
+      </c>
+      <c r="F238" s="11">
+        <v>10000</v>
       </c>
       <c r="G238" s="10">
         <f>(E238*200)*F238</f>
-        <v>260000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.2">
@@ -6034,27 +6396,27 @@
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A244" s="5">
-        <v>12</v>
-      </c>
-      <c r="B244" s="5">
-        <v>1</v>
+      <c r="A244" s="9">
+        <v>12</v>
+      </c>
+      <c r="B244" s="9">
+        <v>2</v>
       </c>
       <c r="C244" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D244" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E244" s="9">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F244" s="9">
         <v>10</v>
       </c>
       <c r="G244" s="10">
         <f>(E244*200)*F244</f>
-        <v>30000</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.2">
@@ -6610,27 +6972,27 @@
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A268" s="5">
-        <v>12</v>
-      </c>
-      <c r="B268" s="5">
-        <v>1</v>
+      <c r="A268" s="9">
+        <v>12</v>
+      </c>
+      <c r="B268" s="9">
+        <v>2</v>
       </c>
       <c r="C268" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D268" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E268" s="9">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F268" s="9">
         <v>10</v>
       </c>
       <c r="G268" s="10">
         <f>(E268*200)*F268</f>
-        <v>24000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.2">
@@ -6754,27 +7116,27 @@
       </c>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A274" s="5">
-        <v>12</v>
-      </c>
-      <c r="B274" s="5">
-        <v>1</v>
+      <c r="A274" s="9">
+        <v>12</v>
+      </c>
+      <c r="B274" s="9">
+        <v>2</v>
       </c>
       <c r="C274" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D274" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E274" s="9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F274" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G274" s="10">
         <f>(E274*200)*F274</f>
-        <v>14000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
@@ -6970,11 +7332,11 @@
       </c>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A283" s="9">
-        <v>12</v>
-      </c>
-      <c r="B283" s="9">
-        <v>3</v>
+      <c r="A283" s="5">
+        <v>12</v>
+      </c>
+      <c r="B283" s="5">
+        <v>1</v>
       </c>
       <c r="C283" s="9">
         <v>5</v>
@@ -6983,22 +7345,22 @@
         <v>30</v>
       </c>
       <c r="E283" s="9">
-        <v>16</v>
-      </c>
-      <c r="F283" s="9">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="F283" s="10">
+        <v>1000</v>
       </c>
       <c r="G283" s="10">
         <f>(E283*200)*F283</f>
-        <v>32000</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A284" s="9">
-        <v>12</v>
-      </c>
-      <c r="B284" s="9">
-        <v>3</v>
+      <c r="A284" s="5">
+        <v>12</v>
+      </c>
+      <c r="B284" s="5">
+        <v>1</v>
       </c>
       <c r="C284" s="9">
         <v>6</v>
@@ -7007,14 +7369,14 @@
         <v>30</v>
       </c>
       <c r="E284" s="9">
-        <v>0</v>
-      </c>
-      <c r="F284" s="9">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="F284" s="13">
+        <v>10</v>
       </c>
       <c r="G284" s="10">
         <f>(E284*200)*F284</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
@@ -7954,39 +8316,51 @@
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A324" s="4">
-        <v>6</v>
-      </c>
-      <c r="B324" s="4">
-        <v>2</v>
-      </c>
-      <c r="C324" s="5">
+      <c r="A324" s="5">
+        <v>12</v>
+      </c>
+      <c r="B324" s="5">
+        <v>1</v>
+      </c>
+      <c r="C324" s="9">
         <v>8</v>
       </c>
       <c r="D324" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E324" s="9">
+        <v>28</v>
+      </c>
+      <c r="F324" s="13">
+        <v>10</v>
+      </c>
       <c r="G324" s="10">
         <f>(E324*200)*F324</f>
-        <v>0</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A325" s="4">
-        <v>6</v>
+      <c r="A325" s="5">
+        <v>3</v>
       </c>
       <c r="B325" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C325" s="5">
         <v>7</v>
       </c>
-      <c r="D325" s="8" t="s">
+      <c r="D325" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="E325" s="9">
+        <v>23</v>
+      </c>
+      <c r="F325" s="11">
+        <v>10</v>
       </c>
       <c r="G325" s="10">
         <f>(E325*200)*F325</f>
-        <v>0</v>
+        <v>46000</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -7994,68 +8368,92 @@
         <v>6</v>
       </c>
       <c r="B326" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C326" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D326" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E326" s="9">
+        <v>8</v>
+      </c>
+      <c r="F326" s="10">
+        <v>1</v>
+      </c>
       <c r="G326" s="10">
         <f>(E326*200)*F326</f>
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A327" s="5">
-        <v>12</v>
-      </c>
-      <c r="B327" s="5">
-        <v>1</v>
-      </c>
-      <c r="C327" s="9">
-        <v>5</v>
+      <c r="A327" s="4">
+        <v>6</v>
+      </c>
+      <c r="B327" s="4">
+        <v>2</v>
+      </c>
+      <c r="C327" s="5">
+        <v>8</v>
       </c>
       <c r="D327" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E327" s="9">
+        <v>16</v>
+      </c>
+      <c r="F327" s="13">
+        <v>100</v>
+      </c>
       <c r="G327" s="10">
         <f>(E327*200)*F327</f>
-        <v>0</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A328" s="5">
-        <v>12</v>
-      </c>
-      <c r="B328" s="5">
-        <v>1</v>
+      <c r="A328" s="9">
+        <v>12</v>
+      </c>
+      <c r="B328" s="9">
+        <v>2</v>
       </c>
       <c r="C328" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D328" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E328" s="9">
+        <v>28</v>
+      </c>
+      <c r="F328" s="13">
+        <v>10</v>
+      </c>
       <c r="G328" s="10">
         <f>(E328*200)*F328</f>
-        <v>0</v>
+        <v>56000</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A329" s="5">
-        <v>12</v>
-      </c>
-      <c r="B329" s="5">
-        <v>1</v>
+      <c r="A329" s="9">
+        <v>12</v>
+      </c>
+      <c r="B329" s="9">
+        <v>2</v>
       </c>
       <c r="C329" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D329" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E329" s="9">
+        <v>0</v>
+      </c>
+      <c r="F329" s="13">
+        <v>1</v>
+      </c>
       <c r="G329" s="10">
         <f>(E329*200)*F329</f>
         <v>0</v>
@@ -8069,20 +8467,20 @@
         <v>2</v>
       </c>
       <c r="C330" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D330" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E330" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F330" s="9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G330" s="10">
         <f>(E330*200)*F330</f>
-        <v>34000</v>
+        <v>200</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -8206,18 +8604,24 @@
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A336" s="5">
-        <v>12</v>
-      </c>
-      <c r="B336" s="5">
-        <v>1</v>
+      <c r="A336" s="9">
+        <v>12</v>
+      </c>
+      <c r="B336" s="9">
+        <v>2</v>
       </c>
       <c r="C336" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D336" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E336" s="9">
+        <v>0</v>
+      </c>
+      <c r="F336" s="13">
+        <v>1</v>
+      </c>
       <c r="G336" s="10">
         <f>(E336*200)*F336</f>
         <v>0</v>
@@ -8231,68 +8635,92 @@
         <v>2</v>
       </c>
       <c r="C337" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D337" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E337" s="9">
+        <v>6</v>
+      </c>
+      <c r="F337" s="13">
+        <v>1</v>
+      </c>
       <c r="G337" s="10">
         <f>(E337*200)*F337</f>
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A338" s="9">
-        <v>12</v>
-      </c>
-      <c r="B338" s="9">
-        <v>2</v>
-      </c>
-      <c r="C338" s="9">
-        <v>6</v>
-      </c>
-      <c r="D338" s="8" t="s">
+      <c r="A338" s="5">
+        <v>3</v>
+      </c>
+      <c r="B338" s="4">
+        <v>3</v>
+      </c>
+      <c r="C338" s="5">
+        <v>7</v>
+      </c>
+      <c r="D338" s="6" t="s">
         <v>29</v>
+      </c>
+      <c r="E338" s="9">
+        <v>5</v>
+      </c>
+      <c r="F338" s="11">
+        <v>1</v>
       </c>
       <c r="G338" s="10">
         <f>(E338*200)*F338</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A339" s="9">
-        <v>12</v>
-      </c>
-      <c r="B339" s="9">
-        <v>2</v>
-      </c>
-      <c r="C339" s="9">
+      <c r="A339" s="4">
+        <v>6</v>
+      </c>
+      <c r="B339" s="4">
+        <v>3</v>
+      </c>
+      <c r="C339" s="5">
         <v>7</v>
       </c>
       <c r="D339" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E339" s="9">
+        <v>0</v>
+      </c>
+      <c r="F339" s="10">
+        <v>1</v>
+      </c>
       <c r="G339" s="10">
         <f>(E339*200)*F339</f>
         <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A340" s="9">
-        <v>12</v>
-      </c>
-      <c r="B340" s="9">
-        <v>2</v>
-      </c>
-      <c r="C340" s="9">
+      <c r="A340" s="4">
+        <v>6</v>
+      </c>
+      <c r="B340" s="4">
+        <v>3</v>
+      </c>
+      <c r="C340" s="5">
         <v>8</v>
       </c>
       <c r="D340" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E340" s="9">
+        <v>6</v>
+      </c>
+      <c r="F340" s="13">
+        <v>100</v>
+      </c>
       <c r="G340" s="10">
         <f>(E340*200)*F340</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.2">
@@ -8308,33 +8736,39 @@
       <c r="D341" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E341" s="9">
+        <v>3</v>
+      </c>
+      <c r="F341" s="13">
+        <v>10</v>
+      </c>
       <c r="G341" s="10">
         <f>(E341*200)*F341</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A342" s="9">
-        <v>12</v>
-      </c>
-      <c r="B342" s="9">
-        <v>2</v>
-      </c>
-      <c r="C342" s="9">
-        <v>6</v>
+      <c r="A342" s="4">
+        <v>6</v>
+      </c>
+      <c r="B342" s="4">
+        <v>3</v>
+      </c>
+      <c r="C342" s="5">
+        <v>5</v>
       </c>
       <c r="D342" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E342" s="9">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F342" s="9">
         <v>10</v>
       </c>
       <c r="G342" s="10">
         <f>(E342*200)*F342</f>
-        <v>2000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.2">
@@ -8470,6 +8904,12 @@
       <c r="D348" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E348" s="9">
+        <v>0</v>
+      </c>
+      <c r="F348" s="13">
+        <v>1</v>
+      </c>
       <c r="G348" s="10">
         <f>(E348*200)*F348</f>
         <v>0</v>
@@ -8488,6 +8928,12 @@
       <c r="D349" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E349" s="9">
+        <v>0</v>
+      </c>
+      <c r="F349" s="13">
+        <v>1</v>
+      </c>
       <c r="G349" s="10">
         <f>(E349*200)*F349</f>
         <v>0</v>
@@ -8506,6 +8952,12 @@
       <c r="D350" s="8" t="s">
         <v>29</v>
       </c>
+      <c r="E350" s="9">
+        <v>0</v>
+      </c>
+      <c r="F350" s="13">
+        <v>1</v>
+      </c>
       <c r="G350" s="10">
         <f>(E350*200)*F350</f>
         <v>0</v>
@@ -8513,86 +8965,98 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B351" s="5">
         <v>1</v>
       </c>
-      <c r="C351" s="5">
-        <v>8</v>
-      </c>
-      <c r="D351" s="7" t="s">
+      <c r="C351" s="9">
+        <v>7</v>
+      </c>
+      <c r="D351" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E351" s="9"/>
-      <c r="F351" s="11"/>
+      <c r="E351" s="9">
+        <v>40</v>
+      </c>
+      <c r="F351" s="13">
+        <v>10</v>
+      </c>
       <c r="G351" s="10">
         <f>(E351*200)*F351</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
-        <v>3</v>
-      </c>
-      <c r="B352" s="4">
-        <v>2</v>
-      </c>
-      <c r="C352" s="5">
+        <v>12</v>
+      </c>
+      <c r="B352" s="5">
+        <v>1</v>
+      </c>
+      <c r="C352" s="9">
         <v>8</v>
       </c>
-      <c r="D352" s="7" t="s">
+      <c r="D352" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E352" s="9"/>
-      <c r="F352" s="11"/>
+      <c r="E352" s="9">
+        <v>60</v>
+      </c>
+      <c r="F352" s="13">
+        <v>10</v>
+      </c>
       <c r="G352" s="10">
         <f>(E352*200)*F352</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A353" s="9">
-        <v>6</v>
-      </c>
-      <c r="B353" s="5">
-        <v>1</v>
+      <c r="A353" s="5">
+        <v>3</v>
+      </c>
+      <c r="B353" s="4">
+        <v>2</v>
       </c>
       <c r="C353" s="5">
-        <v>7</v>
-      </c>
-      <c r="D353" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E353" s="9"/>
-      <c r="F353" s="11"/>
+      <c r="E353" s="9">
+        <v>9</v>
+      </c>
+      <c r="F353" s="11">
+        <v>1000</v>
+      </c>
       <c r="G353" s="10">
         <f>(E353*200)*F353</f>
-        <v>0</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A354" s="9">
-        <v>12</v>
-      </c>
-      <c r="B354" s="9">
-        <v>2</v>
-      </c>
-      <c r="C354" s="9">
-        <v>7</v>
+      <c r="A354" s="4">
+        <v>6</v>
+      </c>
+      <c r="B354" s="4">
+        <v>3</v>
+      </c>
+      <c r="C354" s="5">
+        <v>6</v>
       </c>
       <c r="D354" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E354" s="9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F354" s="9">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G354" s="10">
         <f>(E354*200)*F354</f>
-        <v>0</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.2">
@@ -8716,23 +9180,27 @@
       </c>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A360" s="9">
-        <v>6</v>
-      </c>
-      <c r="B360" s="5">
-        <v>1</v>
+      <c r="A360" s="4">
+        <v>6</v>
+      </c>
+      <c r="B360" s="4">
+        <v>2</v>
       </c>
       <c r="C360" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D360" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E360" s="9"/>
-      <c r="F360" s="11"/>
+      <c r="E360" s="9">
+        <v>9</v>
+      </c>
+      <c r="F360" s="10">
+        <v>10</v>
+      </c>
       <c r="G360" s="10">
         <f>(E360*200)*F360</f>
-        <v>0</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.2">
@@ -8743,86 +9211,116 @@
         <v>2</v>
       </c>
       <c r="C361" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D361" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E361" s="9">
+        <v>8</v>
+      </c>
+      <c r="F361" s="13">
+        <v>1000</v>
+      </c>
       <c r="G361" s="10">
         <f>(E361*200)*F361</f>
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A362" s="4">
-        <v>6</v>
-      </c>
-      <c r="B362" s="4">
-        <v>2</v>
-      </c>
-      <c r="C362" s="5">
-        <v>8</v>
+      <c r="A362" s="9">
+        <v>12</v>
+      </c>
+      <c r="B362" s="9">
+        <v>2</v>
+      </c>
+      <c r="C362" s="9">
+        <v>5</v>
       </c>
       <c r="D362" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E362" s="9">
+        <v>7</v>
+      </c>
+      <c r="F362" s="13">
+        <v>100</v>
+      </c>
       <c r="G362" s="10">
         <f>(E362*200)*F362</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A363" s="5">
-        <v>12</v>
-      </c>
-      <c r="B363" s="5">
-        <v>1</v>
+      <c r="A363" s="9">
+        <v>12</v>
+      </c>
+      <c r="B363" s="9">
+        <v>2</v>
       </c>
       <c r="C363" s="9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D363" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E363" s="9">
+        <v>17</v>
+      </c>
+      <c r="F363" s="13">
+        <v>1</v>
+      </c>
       <c r="G363" s="10">
         <f>(E363*200)*F363</f>
-        <v>0</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A364" s="5">
-        <v>12</v>
-      </c>
-      <c r="B364" s="5">
-        <v>1</v>
+      <c r="A364" s="9">
+        <v>12</v>
+      </c>
+      <c r="B364" s="9">
+        <v>2</v>
       </c>
       <c r="C364" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D364" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E364" s="9">
+        <v>2</v>
+      </c>
+      <c r="F364" s="13">
+        <v>10</v>
+      </c>
       <c r="G364" s="10">
         <f>(E364*200)*F364</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A365" s="5">
-        <v>12</v>
-      </c>
-      <c r="B365" s="5">
-        <v>1</v>
+      <c r="A365" s="9">
+        <v>12</v>
+      </c>
+      <c r="B365" s="9">
+        <v>2</v>
       </c>
       <c r="C365" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D365" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E365" s="9">
+        <v>7</v>
+      </c>
+      <c r="F365" s="13">
+        <v>10</v>
+      </c>
       <c r="G365" s="10">
         <f>(E365*200)*F365</f>
-        <v>0</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.2">
@@ -9330,27 +9828,27 @@
       </c>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A387" s="9">
-        <v>12</v>
-      </c>
-      <c r="B387" s="9">
-        <v>2</v>
-      </c>
-      <c r="C387" s="9">
-        <v>8</v>
-      </c>
-      <c r="D387" s="8" t="s">
+      <c r="A387" s="5">
+        <v>3</v>
+      </c>
+      <c r="B387" s="4">
+        <v>3</v>
+      </c>
+      <c r="C387" s="4">
+        <v>5</v>
+      </c>
+      <c r="D387" s="6" t="s">
         <v>21</v>
       </c>
       <c r="E387" s="9">
-        <v>1</v>
-      </c>
-      <c r="F387" s="9">
-        <v>1</v>
+        <v>9</v>
+      </c>
+      <c r="F387" s="11">
+        <v>100</v>
       </c>
       <c r="G387" s="10">
         <f>(E387*200)*F387</f>
-        <v>200</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.2">
@@ -9475,56 +9973,74 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
-        <v>12</v>
-      </c>
-      <c r="B393" s="5">
-        <v>1</v>
-      </c>
-      <c r="C393" s="9">
+        <v>3</v>
+      </c>
+      <c r="B393" s="4">
+        <v>3</v>
+      </c>
+      <c r="C393" s="5">
         <v>8</v>
       </c>
-      <c r="D393" s="8" t="s">
+      <c r="D393" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="E393" s="9">
+        <v>26</v>
+      </c>
+      <c r="F393" s="11">
+        <v>10</v>
       </c>
       <c r="G393" s="10">
         <f>(E393*200)*F393</f>
-        <v>0</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A394" s="9">
-        <v>12</v>
-      </c>
-      <c r="B394" s="9">
-        <v>2</v>
-      </c>
-      <c r="C394" s="9">
-        <v>5</v>
+      <c r="A394" s="4">
+        <v>6</v>
+      </c>
+      <c r="B394" s="4">
+        <v>3</v>
+      </c>
+      <c r="C394" s="5">
+        <v>7</v>
       </c>
       <c r="D394" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E394" s="9">
+        <v>0</v>
+      </c>
+      <c r="F394" s="9">
+        <v>1</v>
+      </c>
       <c r="G394" s="10">
         <f>(E394*200)*F394</f>
         <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A395" s="9">
-        <v>12</v>
-      </c>
-      <c r="B395" s="9">
-        <v>2</v>
-      </c>
-      <c r="C395" s="9">
-        <v>6</v>
+      <c r="A395" s="4">
+        <v>6</v>
+      </c>
+      <c r="B395" s="4">
+        <v>3</v>
+      </c>
+      <c r="C395" s="5">
+        <v>8</v>
       </c>
       <c r="D395" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E395" s="9">
+        <v>7</v>
+      </c>
+      <c r="F395" s="9">
+        <v>100</v>
+      </c>
       <c r="G395" s="10">
         <f>(E395*200)*F395</f>
-        <v>0</v>
+        <v>140000</v>
       </c>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.2">
@@ -9532,17 +10048,23 @@
         <v>12</v>
       </c>
       <c r="B396" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C396" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D396" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E396" s="9">
+        <v>16</v>
+      </c>
+      <c r="F396" s="9">
+        <v>10</v>
+      </c>
       <c r="G396" s="10">
         <f>(E396*200)*F396</f>
-        <v>0</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.2">
@@ -9550,14 +10072,20 @@
         <v>12</v>
       </c>
       <c r="B397" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C397" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D397" s="8" t="s">
         <v>30</v>
       </c>
+      <c r="E397" s="9">
+        <v>0</v>
+      </c>
+      <c r="F397" s="9">
+        <v>1</v>
+      </c>
       <c r="G397" s="10">
         <f>(E397*200)*F397</f>
         <v>0</v>
@@ -9565,100 +10093,122 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B398" s="5">
         <v>1</v>
       </c>
-      <c r="C398" s="5">
-        <v>8</v>
-      </c>
-      <c r="D398" s="6" t="s">
+      <c r="C398" s="9">
+        <v>5</v>
+      </c>
+      <c r="D398" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E398" s="9"/>
-      <c r="F398" s="11"/>
+      <c r="E398" s="9">
+        <v>25</v>
+      </c>
+      <c r="F398" s="10">
+        <v>100</v>
+      </c>
       <c r="G398" s="10">
         <f>(E398*200)*F398</f>
-        <v>0</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
-        <v>3</v>
-      </c>
-      <c r="B399" s="4">
-        <v>2</v>
-      </c>
-      <c r="C399" s="5">
-        <v>8</v>
-      </c>
-      <c r="D399" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B399" s="5">
+        <v>1</v>
+      </c>
+      <c r="C399" s="9">
+        <v>6</v>
+      </c>
+      <c r="D399" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E399" s="9"/>
-      <c r="F399" s="11"/>
+      <c r="E399" s="9">
+        <v>35</v>
+      </c>
+      <c r="F399" s="13">
+        <v>10</v>
+      </c>
       <c r="G399" s="10">
         <f>(E399*200)*F399</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A400" s="9">
-        <v>6</v>
+      <c r="A400" s="5">
+        <v>12</v>
       </c>
       <c r="B400" s="5">
         <v>1</v>
       </c>
-      <c r="C400" s="5">
+      <c r="C400" s="9">
         <v>7</v>
       </c>
       <c r="D400" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E400" s="9"/>
-      <c r="F400" s="11"/>
+      <c r="E400" s="9">
+        <v>40</v>
+      </c>
+      <c r="F400" s="13">
+        <v>10</v>
+      </c>
       <c r="G400" s="10">
         <f>(E400*200)*F400</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A401" s="9">
-        <v>6</v>
+      <c r="A401" s="5">
+        <v>12</v>
       </c>
       <c r="B401" s="5">
         <v>1</v>
       </c>
-      <c r="C401" s="5">
+      <c r="C401" s="9">
         <v>8</v>
       </c>
       <c r="D401" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E401" s="9"/>
-      <c r="F401" s="11"/>
+      <c r="E401" s="9">
+        <v>50</v>
+      </c>
+      <c r="F401" s="13">
+        <v>10</v>
+      </c>
       <c r="G401" s="10">
         <f>(E401*200)*F401</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A402" s="4">
-        <v>6</v>
+      <c r="A402" s="5">
+        <v>3</v>
       </c>
       <c r="B402" s="4">
         <v>2</v>
       </c>
       <c r="C402" s="5">
-        <v>7</v>
-      </c>
-      <c r="D402" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D402" s="6" t="s">
         <v>31</v>
+      </c>
+      <c r="E402" s="9">
+        <v>30</v>
+      </c>
+      <c r="F402" s="11">
+        <v>1000</v>
       </c>
       <c r="G402" s="10">
         <f>(E402*200)*F402</f>
-        <v>0</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.2">
@@ -9669,86 +10219,116 @@
         <v>2</v>
       </c>
       <c r="C403" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D403" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E403" s="9">
+        <v>10</v>
+      </c>
+      <c r="F403" s="9">
+        <v>10</v>
+      </c>
       <c r="G403" s="10">
         <f>(E403*200)*F403</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A404" s="5">
-        <v>12</v>
-      </c>
-      <c r="B404" s="5">
-        <v>1</v>
-      </c>
-      <c r="C404" s="9">
-        <v>5</v>
+      <c r="A404" s="4">
+        <v>6</v>
+      </c>
+      <c r="B404" s="4">
+        <v>2</v>
+      </c>
+      <c r="C404" s="5">
+        <v>8</v>
       </c>
       <c r="D404" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E404" s="9">
+        <v>10</v>
+      </c>
+      <c r="F404" s="9">
+        <v>1000</v>
+      </c>
       <c r="G404" s="10">
         <f>(E404*200)*F404</f>
-        <v>0</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A405" s="5">
-        <v>12</v>
-      </c>
-      <c r="B405" s="5">
-        <v>1</v>
+      <c r="A405" s="9">
+        <v>12</v>
+      </c>
+      <c r="B405" s="9">
+        <v>2</v>
       </c>
       <c r="C405" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D405" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E405" s="9">
+        <v>2</v>
+      </c>
+      <c r="F405" s="9">
+        <v>100</v>
+      </c>
       <c r="G405" s="10">
         <f>(E405*200)*F405</f>
-        <v>0</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A406" s="5">
-        <v>12</v>
-      </c>
-      <c r="B406" s="5">
-        <v>1</v>
+      <c r="A406" s="9">
+        <v>12</v>
+      </c>
+      <c r="B406" s="9">
+        <v>2</v>
       </c>
       <c r="C406" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D406" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E406" s="9">
+        <v>14</v>
+      </c>
+      <c r="F406" s="9">
+        <v>1</v>
+      </c>
       <c r="G406" s="10">
         <f>(E406*200)*F406</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A407" s="5">
-        <v>12</v>
-      </c>
-      <c r="B407" s="5">
-        <v>1</v>
+      <c r="A407" s="9">
+        <v>12</v>
+      </c>
+      <c r="B407" s="9">
+        <v>2</v>
       </c>
       <c r="C407" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D407" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E407" s="9">
+        <v>14</v>
+      </c>
+      <c r="F407" s="9">
+        <v>1</v>
+      </c>
       <c r="G407" s="10">
         <f>(E407*200)*F407</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
@@ -9759,166 +10339,212 @@
         <v>2</v>
       </c>
       <c r="C408" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D408" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E408" s="9">
+        <v>14</v>
+      </c>
+      <c r="F408" s="9">
+        <v>1</v>
+      </c>
       <c r="G408" s="10">
         <f>(E408*200)*F408</f>
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="9">
-        <v>12</v>
-      </c>
-      <c r="B409" s="9">
-        <v>2</v>
-      </c>
-      <c r="C409" s="9">
-        <v>6</v>
-      </c>
-      <c r="D409" s="8" t="s">
+      <c r="A409" s="5">
+        <v>3</v>
+      </c>
+      <c r="B409" s="4">
+        <v>3</v>
+      </c>
+      <c r="C409" s="5">
+        <v>8</v>
+      </c>
+      <c r="D409" s="6" t="s">
         <v>31</v>
+      </c>
+      <c r="E409" s="9">
+        <v>17</v>
+      </c>
+      <c r="F409" s="11">
+        <v>100</v>
       </c>
       <c r="G409" s="10">
         <f>(E409*200)*F409</f>
-        <v>0</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="9">
-        <v>12</v>
-      </c>
-      <c r="B410" s="9">
-        <v>2</v>
-      </c>
-      <c r="C410" s="9">
+      <c r="A410" s="4">
+        <v>6</v>
+      </c>
+      <c r="B410" s="4">
+        <v>3</v>
+      </c>
+      <c r="C410" s="5">
         <v>7</v>
       </c>
       <c r="D410" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E410" s="9">
+        <v>1</v>
+      </c>
+      <c r="F410" s="9">
+        <v>10</v>
+      </c>
       <c r="G410" s="10">
         <f>(E410*200)*F410</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="9">
-        <v>12</v>
-      </c>
-      <c r="B411" s="9">
-        <v>2</v>
-      </c>
-      <c r="C411" s="9">
+      <c r="A411" s="4">
+        <v>6</v>
+      </c>
+      <c r="B411" s="4">
+        <v>3</v>
+      </c>
+      <c r="C411" s="5">
         <v>8</v>
       </c>
       <c r="D411" s="8" t="s">
         <v>31</v>
       </c>
+      <c r="E411" s="9">
+        <v>17</v>
+      </c>
+      <c r="F411" s="9">
+        <v>100</v>
+      </c>
       <c r="G411" s="10">
         <f>(E411*200)*F411</f>
-        <v>0</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B412" s="5">
         <v>1</v>
       </c>
-      <c r="C412" s="5">
-        <v>8</v>
-      </c>
-      <c r="D412" s="7" t="s">
+      <c r="C412" s="9">
+        <v>5</v>
+      </c>
+      <c r="D412" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E412" s="9"/>
-      <c r="F412" s="11"/>
+      <c r="E412" s="9">
+        <v>9</v>
+      </c>
+      <c r="F412" s="10">
+        <v>1000</v>
+      </c>
       <c r="G412" s="10">
         <f>(E412*200)*F412</f>
-        <v>0</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
-        <v>3</v>
-      </c>
-      <c r="B413" s="4">
-        <v>2</v>
-      </c>
-      <c r="C413" s="5">
-        <v>8</v>
-      </c>
-      <c r="D413" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B413" s="5">
+        <v>1</v>
+      </c>
+      <c r="C413" s="9">
+        <v>6</v>
+      </c>
+      <c r="D413" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E413" s="9"/>
-      <c r="F413" s="11"/>
+      <c r="E413" s="9">
+        <v>35</v>
+      </c>
+      <c r="F413" s="13">
+        <v>10</v>
+      </c>
       <c r="G413" s="10">
         <f>(E413*200)*F413</f>
-        <v>0</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="9">
-        <v>6</v>
+      <c r="A414" s="5">
+        <v>12</v>
       </c>
       <c r="B414" s="5">
         <v>1</v>
       </c>
-      <c r="C414" s="5">
+      <c r="C414" s="9">
         <v>7</v>
       </c>
       <c r="D414" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E414" s="9"/>
-      <c r="F414" s="11"/>
+      <c r="E414" s="9">
+        <v>40</v>
+      </c>
+      <c r="F414" s="13">
+        <v>10</v>
+      </c>
       <c r="G414" s="10">
         <f>(E414*200)*F414</f>
-        <v>0</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="9">
-        <v>6</v>
+      <c r="A415" s="5">
+        <v>12</v>
       </c>
       <c r="B415" s="5">
         <v>1</v>
       </c>
-      <c r="C415" s="5">
+      <c r="C415" s="9">
         <v>8</v>
       </c>
       <c r="D415" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E415" s="9"/>
-      <c r="F415" s="11"/>
+      <c r="E415" s="9">
+        <v>50</v>
+      </c>
+      <c r="F415" s="13">
+        <v>10</v>
+      </c>
       <c r="G415" s="10">
         <f>(E415*200)*F415</f>
-        <v>0</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="4">
-        <v>6</v>
+      <c r="A416" s="5">
+        <v>3</v>
       </c>
       <c r="B416" s="4">
         <v>2</v>
       </c>
       <c r="C416" s="5">
-        <v>7</v>
-      </c>
-      <c r="D416" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D416" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="E416" s="9">
+        <v>17</v>
+      </c>
+      <c r="F416" s="11">
+        <v>1000</v>
       </c>
       <c r="G416" s="10">
         <f>(E416*200)*F416</f>
-        <v>0</v>
+        <v>3400000</v>
       </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
@@ -11225,14 +11851,20 @@
         <v>2</v>
       </c>
       <c r="C471" s="5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D471" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E471" s="9">
+        <v>10</v>
+      </c>
+      <c r="F471" s="10">
+        <v>10</v>
+      </c>
       <c r="G471" s="10">
         <f>(E471*200)*F471</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.2">
@@ -11260,21 +11892,27 @@
       </c>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A473" s="5">
-        <v>12</v>
-      </c>
-      <c r="B473" s="5">
-        <v>1</v>
-      </c>
-      <c r="C473" s="9">
-        <v>5</v>
+      <c r="A473" s="4">
+        <v>6</v>
+      </c>
+      <c r="B473" s="4">
+        <v>2</v>
+      </c>
+      <c r="C473" s="5">
+        <v>8</v>
       </c>
       <c r="D473" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E473" s="9">
+        <v>8</v>
+      </c>
+      <c r="F473" s="13">
+        <v>1000</v>
+      </c>
       <c r="G473" s="10">
         <f>(E473*200)*F473</f>
-        <v>0</v>
+        <v>1600000</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.2">
@@ -11446,39 +12084,51 @@
       </c>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A481" s="5">
-        <v>12</v>
-      </c>
-      <c r="B481" s="5">
-        <v>1</v>
+      <c r="A481" s="9">
+        <v>12</v>
+      </c>
+      <c r="B481" s="9">
+        <v>2</v>
       </c>
       <c r="C481" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D481" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E481" s="9">
+        <v>6</v>
+      </c>
+      <c r="F481" s="13">
+        <v>100</v>
+      </c>
       <c r="G481" s="10">
         <f>(E481*200)*F481</f>
-        <v>0</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A482" s="5">
-        <v>12</v>
-      </c>
-      <c r="B482" s="5">
-        <v>1</v>
+      <c r="A482" s="9">
+        <v>12</v>
+      </c>
+      <c r="B482" s="9">
+        <v>2</v>
       </c>
       <c r="C482" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D482" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E482" s="9">
+        <v>12</v>
+      </c>
+      <c r="F482" s="13">
+        <v>1</v>
+      </c>
       <c r="G482" s="10">
         <f>(E482*200)*F482</f>
-        <v>0</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.2">
@@ -11698,18 +12348,24 @@
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A492" s="5">
-        <v>12</v>
-      </c>
-      <c r="B492" s="5">
-        <v>1</v>
+      <c r="A492" s="9">
+        <v>12</v>
+      </c>
+      <c r="B492" s="9">
+        <v>2</v>
       </c>
       <c r="C492" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D492" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E492" s="9">
+        <v>0</v>
+      </c>
+      <c r="F492" s="13">
+        <v>1</v>
+      </c>
       <c r="G492" s="10">
         <f>(E492*200)*F492</f>
         <v>0</v>
@@ -11747,14 +12403,20 @@
         <v>2</v>
       </c>
       <c r="C494" s="9">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D494" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E494" s="9">
+        <v>3</v>
+      </c>
+      <c r="F494" s="13">
+        <v>10</v>
+      </c>
       <c r="G494" s="10">
         <f>(E494*200)*F494</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.2">
@@ -11902,63 +12564,75 @@
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A501" s="9">
-        <v>12</v>
-      </c>
-      <c r="B501" s="9">
-        <v>2</v>
-      </c>
-      <c r="C501" s="9">
-        <v>6</v>
-      </c>
-      <c r="D501" s="8" t="s">
+      <c r="A501" s="5">
+        <v>3</v>
+      </c>
+      <c r="B501" s="4">
+        <v>3</v>
+      </c>
+      <c r="C501" s="5">
+        <v>8</v>
+      </c>
+      <c r="D501" s="7" t="s">
         <v>32</v>
+      </c>
+      <c r="E501" s="9">
+        <v>17</v>
+      </c>
+      <c r="F501" s="11">
+        <v>100</v>
       </c>
       <c r="G501" s="10">
         <f>(E501*200)*F501</f>
-        <v>0</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A502" s="9">
-        <v>12</v>
-      </c>
-      <c r="B502" s="9">
-        <v>3</v>
-      </c>
-      <c r="C502" s="9">
-        <v>5</v>
+      <c r="A502" s="4">
+        <v>6</v>
+      </c>
+      <c r="B502" s="4">
+        <v>3</v>
+      </c>
+      <c r="C502" s="5">
+        <v>7</v>
       </c>
       <c r="D502" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E502" s="9">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="F502" s="9">
         <v>1</v>
       </c>
       <c r="G502" s="10">
         <f>(E502*200)*F502</f>
-        <v>3400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A503" s="9">
-        <v>12</v>
-      </c>
-      <c r="B503" s="9">
-        <v>2</v>
-      </c>
-      <c r="C503" s="9">
-        <v>7</v>
+      <c r="A503" s="4">
+        <v>6</v>
+      </c>
+      <c r="B503" s="4">
+        <v>3</v>
+      </c>
+      <c r="C503" s="5">
+        <v>8</v>
       </c>
       <c r="D503" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E503" s="9">
+        <v>10</v>
+      </c>
+      <c r="F503" s="9">
+        <v>10</v>
+      </c>
       <c r="G503" s="10">
         <f>(E503*200)*F503</f>
-        <v>0</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.2">
@@ -11969,20 +12643,20 @@
         <v>3</v>
       </c>
       <c r="C504" s="9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D504" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E504" s="9">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F504" s="9">
         <v>1</v>
       </c>
       <c r="G504" s="10">
         <f>(E504*200)*F504</f>
-        <v>0</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.2">
@@ -11993,7 +12667,7 @@
         <v>3</v>
       </c>
       <c r="C505" s="9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D505" s="8" t="s">
         <v>32</v>
@@ -12017,20 +12691,20 @@
         <v>3</v>
       </c>
       <c r="C506" s="9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D506" s="8" t="s">
         <v>32</v>
       </c>
       <c r="E506" s="9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F506" s="9">
         <v>1</v>
       </c>
       <c r="G506" s="10">
         <f>(E506*200)*F506</f>
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.2">
@@ -21422,7 +22096,7 @@
         <v>12</v>
       </c>
       <c r="B898" s="9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C898" s="9">
         <v>8</v>
@@ -21430,9 +22104,15 @@
       <c r="D898" s="8" t="s">
         <v>32</v>
       </c>
+      <c r="E898" s="9">
+        <v>1</v>
+      </c>
+      <c r="F898" s="9">
+        <v>1</v>
+      </c>
       <c r="G898" s="10">
         <f>(E898*200)*F898</f>
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="899" spans="1:7" x14ac:dyDescent="0.2">
@@ -21455,7 +22135,7 @@
         <v>1</v>
       </c>
       <c r="G899" s="10">
-        <f>(E899*200)*F899</f>
+        <f t="shared" ref="G899:G962" si="1">(E899*200)*F899</f>
         <v>0</v>
       </c>
     </row>
@@ -21479,7 +22159,7 @@
         <v>1</v>
       </c>
       <c r="G900" s="10">
-        <f>(E900*200)*F900</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21503,7 +22183,7 @@
         <v>1</v>
       </c>
       <c r="G901" s="10">
-        <f>(E901*200)*F901</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21527,7 +22207,7 @@
         <v>1</v>
       </c>
       <c r="G902" s="10">
-        <f>(E902*200)*F902</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21551,7 +22231,7 @@
         <v>1</v>
       </c>
       <c r="G903" s="10">
-        <f>(E903*200)*F903</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21575,7 +22255,7 @@
         <v>1</v>
       </c>
       <c r="G904" s="10">
-        <f>(E904*200)*F904</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21599,7 +22279,7 @@
         <v>1</v>
       </c>
       <c r="G905" s="10">
-        <f>(E905*200)*F905</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21623,7 +22303,7 @@
         <v>1</v>
       </c>
       <c r="G906" s="10">
-        <f>(E906*200)*F906</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21647,7 +22327,7 @@
         <v>1</v>
       </c>
       <c r="G907" s="10">
-        <f>(E907*200)*F907</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21671,7 +22351,7 @@
         <v>1</v>
       </c>
       <c r="G908" s="10">
-        <f>(E908*200)*F908</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21695,7 +22375,7 @@
         <v>1</v>
       </c>
       <c r="G909" s="10">
-        <f>(E909*200)*F909</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21719,7 +22399,7 @@
         <v>1</v>
       </c>
       <c r="G910" s="10">
-        <f>(E910*200)*F910</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21743,7 +22423,7 @@
         <v>1</v>
       </c>
       <c r="G911" s="10">
-        <f>(E911*200)*F911</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21767,7 +22447,7 @@
         <v>1</v>
       </c>
       <c r="G912" s="10">
-        <f>(E912*200)*F912</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21791,7 +22471,7 @@
         <v>1</v>
       </c>
       <c r="G913" s="10">
-        <f>(E913*200)*F913</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21815,7 +22495,7 @@
         <v>1</v>
       </c>
       <c r="G914" s="10">
-        <f>(E914*200)*F914</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21839,7 +22519,7 @@
         <v>1</v>
       </c>
       <c r="G915" s="10">
-        <f>(E915*200)*F915</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21863,7 +22543,7 @@
         <v>1</v>
       </c>
       <c r="G916" s="10">
-        <f>(E916*200)*F916</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21887,7 +22567,7 @@
         <v>1</v>
       </c>
       <c r="G917" s="10">
-        <f>(E917*200)*F917</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21911,7 +22591,7 @@
         <v>1</v>
       </c>
       <c r="G918" s="10">
-        <f>(E918*200)*F918</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21935,7 +22615,7 @@
         <v>1</v>
       </c>
       <c r="G919" s="10">
-        <f>(E919*200)*F919</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21959,7 +22639,7 @@
         <v>1</v>
       </c>
       <c r="G920" s="10">
-        <f>(E920*200)*F920</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -21983,7 +22663,7 @@
         <v>1</v>
       </c>
       <c r="G921" s="10">
-        <f>(E921*200)*F921</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22007,7 +22687,7 @@
         <v>1</v>
       </c>
       <c r="G922" s="10">
-        <f>(E922*200)*F922</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22031,7 +22711,7 @@
         <v>1</v>
       </c>
       <c r="G923" s="10">
-        <f>(E923*200)*F923</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22055,7 +22735,7 @@
         <v>1</v>
       </c>
       <c r="G924" s="10">
-        <f>(E924*200)*F924</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22079,7 +22759,7 @@
         <v>1</v>
       </c>
       <c r="G925" s="10">
-        <f>(E925*200)*F925</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22103,7 +22783,7 @@
         <v>1</v>
       </c>
       <c r="G926" s="10">
-        <f>(E926*200)*F926</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22127,7 +22807,7 @@
         <v>1</v>
       </c>
       <c r="G927" s="10">
-        <f>(E927*200)*F927</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22151,7 +22831,7 @@
         <v>1</v>
       </c>
       <c r="G928" s="10">
-        <f>(E928*200)*F928</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22175,7 +22855,7 @@
         <v>1</v>
       </c>
       <c r="G929" s="10">
-        <f>(E929*200)*F929</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22199,7 +22879,7 @@
         <v>1</v>
       </c>
       <c r="G930" s="10">
-        <f>(E930*200)*F930</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22223,7 +22903,7 @@
         <v>1</v>
       </c>
       <c r="G931" s="10">
-        <f>(E931*200)*F931</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22247,7 +22927,7 @@
         <v>1</v>
       </c>
       <c r="G932" s="10">
-        <f>(E932*200)*F932</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22271,7 +22951,7 @@
         <v>1</v>
       </c>
       <c r="G933" s="10">
-        <f>(E933*200)*F933</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22295,7 +22975,7 @@
         <v>1</v>
       </c>
       <c r="G934" s="10">
-        <f>(E934*200)*F934</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22319,7 +22999,7 @@
         <v>1</v>
       </c>
       <c r="G935" s="10">
-        <f>(E935*200)*F935</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22343,7 +23023,7 @@
         <v>1</v>
       </c>
       <c r="G936" s="10">
-        <f>(E936*200)*F936</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22367,7 +23047,7 @@
         <v>1</v>
       </c>
       <c r="G937" s="10">
-        <f>(E937*200)*F937</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22391,7 +23071,7 @@
         <v>1</v>
       </c>
       <c r="G938" s="10">
-        <f>(E938*200)*F938</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22415,7 +23095,7 @@
         <v>1</v>
       </c>
       <c r="G939" s="10">
-        <f>(E939*200)*F939</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22439,7 +23119,7 @@
         <v>1</v>
       </c>
       <c r="G940" s="10">
-        <f>(E940*200)*F940</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22463,7 +23143,7 @@
         <v>1</v>
       </c>
       <c r="G941" s="10">
-        <f>(E941*200)*F941</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22487,7 +23167,7 @@
         <v>1</v>
       </c>
       <c r="G942" s="10">
-        <f>(E942*200)*F942</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22511,7 +23191,7 @@
         <v>1</v>
       </c>
       <c r="G943" s="10">
-        <f>(E943*200)*F943</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22535,7 +23215,7 @@
         <v>1</v>
       </c>
       <c r="G944" s="10">
-        <f>(E944*200)*F944</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22559,7 +23239,7 @@
         <v>1</v>
       </c>
       <c r="G945" s="10">
-        <f>(E945*200)*F945</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22583,7 +23263,7 @@
         <v>1</v>
       </c>
       <c r="G946" s="10">
-        <f>(E946*200)*F946</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22607,7 +23287,7 @@
         <v>1</v>
       </c>
       <c r="G947" s="10">
-        <f>(E947*200)*F947</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22631,7 +23311,7 @@
         <v>1</v>
       </c>
       <c r="G948" s="10">
-        <f>(E948*200)*F948</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22655,7 +23335,7 @@
         <v>1</v>
       </c>
       <c r="G949" s="10">
-        <f>(E949*200)*F949</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22679,7 +23359,7 @@
         <v>1</v>
       </c>
       <c r="G950" s="10">
-        <f>(E950*200)*F950</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22703,7 +23383,7 @@
         <v>1</v>
       </c>
       <c r="G951" s="10">
-        <f>(E951*200)*F951</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22727,7 +23407,7 @@
         <v>1</v>
       </c>
       <c r="G952" s="10">
-        <f>(E952*200)*F952</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22751,7 +23431,7 @@
         <v>1</v>
       </c>
       <c r="G953" s="10">
-        <f>(E953*200)*F953</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22775,7 +23455,7 @@
         <v>1</v>
       </c>
       <c r="G954" s="10">
-        <f>(E954*200)*F954</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22799,7 +23479,7 @@
         <v>1</v>
       </c>
       <c r="G955" s="10">
-        <f>(E955*200)*F955</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22823,7 +23503,7 @@
         <v>1</v>
       </c>
       <c r="G956" s="10">
-        <f>(E956*200)*F956</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22847,7 +23527,7 @@
         <v>1</v>
       </c>
       <c r="G957" s="10">
-        <f>(E957*200)*F957</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22871,7 +23551,7 @@
         <v>1</v>
       </c>
       <c r="G958" s="10">
-        <f>(E958*200)*F958</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22895,7 +23575,7 @@
         <v>1</v>
       </c>
       <c r="G959" s="10">
-        <f>(E959*200)*F959</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22919,7 +23599,7 @@
         <v>1</v>
       </c>
       <c r="G960" s="10">
-        <f>(E960*200)*F960</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22943,7 +23623,7 @@
         <v>1</v>
       </c>
       <c r="G961" s="10">
-        <f>(E961*200)*F961</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22967,7 +23647,7 @@
         <v>1</v>
       </c>
       <c r="G962" s="10">
-        <f>(E962*200)*F962</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -22991,7 +23671,7 @@
         <v>1</v>
       </c>
       <c r="G963" s="10">
-        <f>(E963*200)*F963</f>
+        <f t="shared" ref="G963:G1026" si="2">(E963*200)*F963</f>
         <v>0</v>
       </c>
     </row>
@@ -23015,7 +23695,7 @@
         <v>1</v>
       </c>
       <c r="G964" s="10">
-        <f>(E964*200)*F964</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23039,7 +23719,7 @@
         <v>1</v>
       </c>
       <c r="G965" s="10">
-        <f>(E965*200)*F965</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23063,7 +23743,7 @@
         <v>1</v>
       </c>
       <c r="G966" s="10">
-        <f>(E966*200)*F966</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23087,7 +23767,7 @@
         <v>1</v>
       </c>
       <c r="G967" s="10">
-        <f>(E967*200)*F967</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23111,7 +23791,7 @@
         <v>1</v>
       </c>
       <c r="G968" s="10">
-        <f>(E968*200)*F968</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23135,7 +23815,7 @@
         <v>1</v>
       </c>
       <c r="G969" s="10">
-        <f>(E969*200)*F969</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23159,7 +23839,7 @@
         <v>1</v>
       </c>
       <c r="G970" s="10">
-        <f>(E970*200)*F970</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23183,7 +23863,7 @@
         <v>1</v>
       </c>
       <c r="G971" s="10">
-        <f>(E971*200)*F971</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23207,7 +23887,7 @@
         <v>1</v>
       </c>
       <c r="G972" s="10">
-        <f>(E972*200)*F972</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23231,7 +23911,7 @@
         <v>1</v>
       </c>
       <c r="G973" s="10">
-        <f>(E973*200)*F973</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23255,7 +23935,7 @@
         <v>1</v>
       </c>
       <c r="G974" s="10">
-        <f>(E974*200)*F974</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23279,7 +23959,7 @@
         <v>1</v>
       </c>
       <c r="G975" s="10">
-        <f>(E975*200)*F975</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23303,7 +23983,7 @@
         <v>1</v>
       </c>
       <c r="G976" s="10">
-        <f>(E976*200)*F976</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23327,7 +24007,7 @@
         <v>1</v>
       </c>
       <c r="G977" s="10">
-        <f>(E977*200)*F977</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23351,7 +24031,7 @@
         <v>1</v>
       </c>
       <c r="G978" s="10">
-        <f>(E978*200)*F978</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23375,7 +24055,7 @@
         <v>1</v>
       </c>
       <c r="G979" s="10">
-        <f>(E979*200)*F979</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23399,7 +24079,7 @@
         <v>1</v>
       </c>
       <c r="G980" s="10">
-        <f>(E980*200)*F980</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23423,7 +24103,7 @@
         <v>1</v>
       </c>
       <c r="G981" s="10">
-        <f>(E981*200)*F981</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23447,7 +24127,7 @@
         <v>1</v>
       </c>
       <c r="G982" s="10">
-        <f>(E982*200)*F982</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23471,7 +24151,7 @@
         <v>1</v>
       </c>
       <c r="G983" s="10">
-        <f>(E983*200)*F983</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23495,7 +24175,7 @@
         <v>1</v>
       </c>
       <c r="G984" s="10">
-        <f>(E984*200)*F984</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23519,7 +24199,7 @@
         <v>1</v>
       </c>
       <c r="G985" s="10">
-        <f>(E985*200)*F985</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23543,7 +24223,7 @@
         <v>1</v>
       </c>
       <c r="G986" s="10">
-        <f>(E986*200)*F986</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23567,7 +24247,7 @@
         <v>1</v>
       </c>
       <c r="G987" s="10">
-        <f>(E987*200)*F987</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23591,7 +24271,7 @@
         <v>1</v>
       </c>
       <c r="G988" s="10">
-        <f>(E988*200)*F988</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23615,7 +24295,7 @@
         <v>1</v>
       </c>
       <c r="G989" s="10">
-        <f>(E989*200)*F989</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23639,7 +24319,7 @@
         <v>1</v>
       </c>
       <c r="G990" s="10">
-        <f>(E990*200)*F990</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23663,7 +24343,7 @@
         <v>1</v>
       </c>
       <c r="G991" s="10">
-        <f>(E991*200)*F991</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23687,7 +24367,7 @@
         <v>1</v>
       </c>
       <c r="G992" s="10">
-        <f>(E992*200)*F992</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23711,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="G993" s="10">
-        <f>(E993*200)*F993</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23735,7 +24415,7 @@
         <v>1</v>
       </c>
       <c r="G994" s="10">
-        <f>(E994*200)*F994</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23759,7 +24439,7 @@
         <v>1</v>
       </c>
       <c r="G995" s="10">
-        <f>(E995*200)*F995</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23783,7 +24463,7 @@
         <v>1</v>
       </c>
       <c r="G996" s="10">
-        <f>(E996*200)*F996</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23807,7 +24487,7 @@
         <v>1</v>
       </c>
       <c r="G997" s="10">
-        <f>(E997*200)*F997</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23831,7 +24511,7 @@
         <v>1</v>
       </c>
       <c r="G998" s="10">
-        <f>(E998*200)*F998</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23855,7 +24535,7 @@
         <v>1</v>
       </c>
       <c r="G999" s="10">
-        <f>(E999*200)*F999</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23879,7 +24559,7 @@
         <v>1</v>
       </c>
       <c r="G1000" s="10">
-        <f>(E1000*200)*F1000</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23903,7 +24583,7 @@
         <v>1</v>
       </c>
       <c r="G1001" s="10">
-        <f>(E1001*200)*F1001</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23927,7 +24607,7 @@
         <v>1</v>
       </c>
       <c r="G1002" s="10">
-        <f>(E1002*200)*F1002</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23951,7 +24631,7 @@
         <v>1</v>
       </c>
       <c r="G1003" s="10">
-        <f>(E1003*200)*F1003</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23975,7 +24655,7 @@
         <v>1</v>
       </c>
       <c r="G1004" s="10">
-        <f>(E1004*200)*F1004</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -23999,7 +24679,7 @@
         <v>1</v>
       </c>
       <c r="G1005" s="10">
-        <f>(E1005*200)*F1005</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24023,7 +24703,7 @@
         <v>1</v>
       </c>
       <c r="G1006" s="10">
-        <f>(E1006*200)*F1006</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24047,7 +24727,7 @@
         <v>1</v>
       </c>
       <c r="G1007" s="10">
-        <f>(E1007*200)*F1007</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24071,7 +24751,7 @@
         <v>1</v>
       </c>
       <c r="G1008" s="10">
-        <f>(E1008*200)*F1008</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24095,7 +24775,7 @@
         <v>1</v>
       </c>
       <c r="G1009" s="10">
-        <f>(E1009*200)*F1009</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24119,7 +24799,7 @@
         <v>1</v>
       </c>
       <c r="G1010" s="10">
-        <f>(E1010*200)*F1010</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24143,7 +24823,7 @@
         <v>1</v>
       </c>
       <c r="G1011" s="10">
-        <f>(E1011*200)*F1011</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24167,7 +24847,7 @@
         <v>1</v>
       </c>
       <c r="G1012" s="10">
-        <f>(E1012*200)*F1012</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24191,7 +24871,7 @@
         <v>1</v>
       </c>
       <c r="G1013" s="10">
-        <f>(E1013*200)*F1013</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24215,7 +24895,7 @@
         <v>1</v>
       </c>
       <c r="G1014" s="10">
-        <f>(E1014*200)*F1014</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24239,7 +24919,7 @@
         <v>1</v>
       </c>
       <c r="G1015" s="10">
-        <f>(E1015*200)*F1015</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24263,7 +24943,7 @@
         <v>1</v>
       </c>
       <c r="G1016" s="10">
-        <f>(E1016*200)*F1016</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24287,7 +24967,7 @@
         <v>1</v>
       </c>
       <c r="G1017" s="10">
-        <f>(E1017*200)*F1017</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24311,7 +24991,7 @@
         <v>1</v>
       </c>
       <c r="G1018" s="10">
-        <f>(E1018*200)*F1018</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24335,7 +25015,7 @@
         <v>1</v>
       </c>
       <c r="G1019" s="10">
-        <f>(E1019*200)*F1019</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24359,7 +25039,7 @@
         <v>1</v>
       </c>
       <c r="G1020" s="10">
-        <f>(E1020*200)*F1020</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24383,7 +25063,7 @@
         <v>1</v>
       </c>
       <c r="G1021" s="10">
-        <f>(E1021*200)*F1021</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24407,7 +25087,7 @@
         <v>1</v>
       </c>
       <c r="G1022" s="10">
-        <f>(E1022*200)*F1022</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24431,7 +25111,7 @@
         <v>1</v>
       </c>
       <c r="G1023" s="10">
-        <f>(E1023*200)*F1023</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24455,7 +25135,7 @@
         <v>1</v>
       </c>
       <c r="G1024" s="10">
-        <f>(E1024*200)*F1024</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24479,7 +25159,7 @@
         <v>1</v>
       </c>
       <c r="G1025" s="10">
-        <f>(E1025*200)*F1025</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24503,7 +25183,7 @@
         <v>1</v>
       </c>
       <c r="G1026" s="10">
-        <f>(E1026*200)*F1026</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -24527,7 +25207,7 @@
         <v>1</v>
       </c>
       <c r="G1027" s="10">
-        <f>(E1027*200)*F1027</f>
+        <f t="shared" ref="G1027:G1090" si="3">(E1027*200)*F1027</f>
         <v>0</v>
       </c>
     </row>
@@ -24551,7 +25231,7 @@
         <v>1</v>
       </c>
       <c r="G1028" s="10">
-        <f>(E1028*200)*F1028</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24575,7 +25255,7 @@
         <v>1</v>
       </c>
       <c r="G1029" s="10">
-        <f>(E1029*200)*F1029</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24599,7 +25279,7 @@
         <v>1</v>
       </c>
       <c r="G1030" s="10">
-        <f>(E1030*200)*F1030</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24623,7 +25303,7 @@
         <v>1</v>
       </c>
       <c r="G1031" s="10">
-        <f>(E1031*200)*F1031</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24647,7 +25327,7 @@
         <v>1</v>
       </c>
       <c r="G1032" s="10">
-        <f>(E1032*200)*F1032</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24671,7 +25351,7 @@
         <v>1</v>
       </c>
       <c r="G1033" s="10">
-        <f>(E1033*200)*F1033</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24695,7 +25375,7 @@
         <v>1</v>
       </c>
       <c r="G1034" s="10">
-        <f>(E1034*200)*F1034</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24719,7 +25399,7 @@
         <v>1</v>
       </c>
       <c r="G1035" s="10">
-        <f>(E1035*200)*F1035</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24743,7 +25423,7 @@
         <v>1</v>
       </c>
       <c r="G1036" s="10">
-        <f>(E1036*200)*F1036</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24767,7 +25447,7 @@
         <v>1</v>
       </c>
       <c r="G1037" s="10">
-        <f>(E1037*200)*F1037</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24791,7 +25471,7 @@
         <v>1</v>
       </c>
       <c r="G1038" s="10">
-        <f>(E1038*200)*F1038</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24815,7 +25495,7 @@
         <v>1</v>
       </c>
       <c r="G1039" s="10">
-        <f>(E1039*200)*F1039</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24839,7 +25519,7 @@
         <v>1</v>
       </c>
       <c r="G1040" s="10">
-        <f>(E1040*200)*F1040</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24863,7 +25543,7 @@
         <v>1</v>
       </c>
       <c r="G1041" s="10">
-        <f>(E1041*200)*F1041</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24887,7 +25567,7 @@
         <v>1</v>
       </c>
       <c r="G1042" s="10">
-        <f>(E1042*200)*F1042</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24911,7 +25591,7 @@
         <v>1</v>
       </c>
       <c r="G1043" s="10">
-        <f>(E1043*200)*F1043</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24935,7 +25615,7 @@
         <v>1</v>
       </c>
       <c r="G1044" s="10">
-        <f>(E1044*200)*F1044</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24959,7 +25639,7 @@
         <v>1</v>
       </c>
       <c r="G1045" s="10">
-        <f>(E1045*200)*F1045</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -24983,7 +25663,7 @@
         <v>1</v>
       </c>
       <c r="G1046" s="10">
-        <f>(E1046*200)*F1046</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25007,7 +25687,7 @@
         <v>1</v>
       </c>
       <c r="G1047" s="10">
-        <f>(E1047*200)*F1047</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25031,7 +25711,7 @@
         <v>1</v>
       </c>
       <c r="G1048" s="10">
-        <f>(E1048*200)*F1048</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25055,7 +25735,7 @@
         <v>1</v>
       </c>
       <c r="G1049" s="10">
-        <f>(E1049*200)*F1049</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25079,7 +25759,7 @@
         <v>1</v>
       </c>
       <c r="G1050" s="10">
-        <f>(E1050*200)*F1050</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25103,7 +25783,7 @@
         <v>1</v>
       </c>
       <c r="G1051" s="10">
-        <f>(E1051*200)*F1051</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25127,7 +25807,7 @@
         <v>1</v>
       </c>
       <c r="G1052" s="10">
-        <f>(E1052*200)*F1052</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25151,7 +25831,7 @@
         <v>1</v>
       </c>
       <c r="G1053" s="10">
-        <f>(E1053*200)*F1053</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25175,7 +25855,7 @@
         <v>1</v>
       </c>
       <c r="G1054" s="10">
-        <f>(E1054*200)*F1054</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25199,7 +25879,7 @@
         <v>1</v>
       </c>
       <c r="G1055" s="10">
-        <f>(E1055*200)*F1055</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25223,7 +25903,7 @@
         <v>1</v>
       </c>
       <c r="G1056" s="10">
-        <f>(E1056*200)*F1056</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25247,7 +25927,7 @@
         <v>1</v>
       </c>
       <c r="G1057" s="10">
-        <f>(E1057*200)*F1057</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25271,7 +25951,7 @@
         <v>1</v>
       </c>
       <c r="G1058" s="10">
-        <f>(E1058*200)*F1058</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25295,7 +25975,7 @@
         <v>1</v>
       </c>
       <c r="G1059" s="10">
-        <f>(E1059*200)*F1059</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25317,7 +25997,7 @@
         <v>1</v>
       </c>
       <c r="G1060" s="10">
-        <f>(E1060*200)*F1060</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25341,7 +26021,7 @@
         <v>1</v>
       </c>
       <c r="G1061" s="10">
-        <f>(E1061*200)*F1061</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25365,7 +26045,7 @@
         <v>1</v>
       </c>
       <c r="G1062" s="10">
-        <f>(E1062*200)*F1062</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25389,7 +26069,7 @@
         <v>1</v>
       </c>
       <c r="G1063" s="10">
-        <f>(E1063*200)*F1063</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25413,7 +26093,7 @@
         <v>1</v>
       </c>
       <c r="G1064" s="10">
-        <f>(E1064*200)*F1064</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25437,7 +26117,7 @@
         <v>1</v>
       </c>
       <c r="G1065" s="10">
-        <f>(E1065*200)*F1065</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25461,7 +26141,7 @@
         <v>1</v>
       </c>
       <c r="G1066" s="10">
-        <f>(E1066*200)*F1066</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25485,7 +26165,7 @@
         <v>1</v>
       </c>
       <c r="G1067" s="10">
-        <f>(E1067*200)*F1067</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25509,7 +26189,7 @@
         <v>1</v>
       </c>
       <c r="G1068" s="10">
-        <f>(E1068*200)*F1068</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25533,7 +26213,7 @@
         <v>1</v>
       </c>
       <c r="G1069" s="10">
-        <f>(E1069*200)*F1069</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25557,7 +26237,7 @@
         <v>1</v>
       </c>
       <c r="G1070" s="10">
-        <f>(E1070*200)*F1070</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25581,7 +26261,7 @@
         <v>1</v>
       </c>
       <c r="G1071" s="10">
-        <f>(E1071*200)*F1071</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25605,7 +26285,7 @@
         <v>1</v>
       </c>
       <c r="G1072" s="10">
-        <f>(E1072*200)*F1072</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25629,7 +26309,7 @@
         <v>1</v>
       </c>
       <c r="G1073" s="10">
-        <f>(E1073*200)*F1073</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25653,7 +26333,7 @@
         <v>1</v>
       </c>
       <c r="G1074" s="10">
-        <f>(E1074*200)*F1074</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25677,7 +26357,7 @@
         <v>1</v>
       </c>
       <c r="G1075" s="10">
-        <f>(E1075*200)*F1075</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25701,7 +26381,7 @@
         <v>1</v>
       </c>
       <c r="G1076" s="10">
-        <f>(E1076*200)*F1076</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25725,7 +26405,7 @@
         <v>1</v>
       </c>
       <c r="G1077" s="10">
-        <f>(E1077*200)*F1077</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25749,7 +26429,7 @@
         <v>1</v>
       </c>
       <c r="G1078" s="10">
-        <f>(E1078*200)*F1078</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25773,7 +26453,7 @@
         <v>1</v>
       </c>
       <c r="G1079" s="10">
-        <f>(E1079*200)*F1079</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25797,7 +26477,7 @@
         <v>1</v>
       </c>
       <c r="G1080" s="10">
-        <f>(E1080*200)*F1080</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25821,7 +26501,7 @@
         <v>1</v>
       </c>
       <c r="G1081" s="10">
-        <f>(E1081*200)*F1081</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -25845,12 +26525,11 @@
         <v>1</v>
       </c>
       <c r="G1082" s="10">
-        <f>(E1082*200)*F1082</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="E1:E1082" xr:uid="{24178581-C2E6-124A-B3E8-98CA2B74FC3E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A21:G1060">
     <sortCondition ref="D2"/>
   </sortState>
